--- a/AAII_Financials/Quarterly/GBRCF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GBRCF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
   <si>
     <t>GBRCF</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,55 +665,59 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -741,8 +745,11 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -770,8 +777,11 @@
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -799,8 +809,11 @@
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,8 +825,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -841,8 +855,11 @@
       <c r="K12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,45 +887,51 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
         <v>0</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>4</v>
+      <c r="E15" s="3">
+        <v>0</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>4</v>
@@ -928,8 +951,11 @@
       <c r="K15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,19 +964,20 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="E17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F17" s="3">
         <v>400</v>
-      </c>
-      <c r="F17" s="3">
-        <v>100</v>
       </c>
       <c r="G17" s="3">
         <v>100</v>
@@ -967,8 +994,11 @@
       <c r="K17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -976,11 +1006,11 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-400</v>
       </c>
-      <c r="F18" s="3">
-        <v>-100</v>
-      </c>
       <c r="G18" s="3">
         <v>-100</v>
       </c>
@@ -996,8 +1026,11 @@
       <c r="K18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,8 +1042,9 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1038,8 +1072,11 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1067,8 +1104,11 @@
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1096,20 +1136,23 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1200</v>
+        <v>-1000</v>
       </c>
       <c r="E23" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-400</v>
       </c>
-      <c r="F23" s="3">
-        <v>-100</v>
-      </c>
       <c r="G23" s="3">
         <v>-100</v>
       </c>
@@ -1117,16 +1160,19 @@
         <v>-100</v>
       </c>
       <c r="I23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1154,8 +1200,11 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,20 +1232,23 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1200</v>
+        <v>-1000</v>
       </c>
       <c r="E26" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-400</v>
       </c>
-      <c r="F26" s="3">
-        <v>-100</v>
-      </c>
       <c r="G26" s="3">
         <v>-100</v>
       </c>
@@ -1204,28 +1256,31 @@
         <v>-100</v>
       </c>
       <c r="I26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1200</v>
+        <v>-1000</v>
       </c>
       <c r="E27" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-400</v>
       </c>
-      <c r="F27" s="3">
-        <v>-100</v>
-      </c>
       <c r="G27" s="3">
         <v>-100</v>
       </c>
@@ -1233,16 +1288,19 @@
         <v>-100</v>
       </c>
       <c r="I27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1360,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,8 +1424,11 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1386,20 +1456,23 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1200</v>
+        <v>-1000</v>
       </c>
       <c r="E33" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-400</v>
       </c>
-      <c r="F33" s="3">
-        <v>-100</v>
-      </c>
       <c r="G33" s="3">
         <v>-100</v>
       </c>
@@ -1407,16 +1480,19 @@
         <v>-100</v>
       </c>
       <c r="I33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,20 +1520,23 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1200</v>
+        <v>-1000</v>
       </c>
       <c r="E35" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-400</v>
       </c>
-      <c r="F35" s="3">
-        <v>-100</v>
-      </c>
       <c r="G35" s="3">
         <v>-100</v>
       </c>
@@ -1465,50 +1544,56 @@
         <v>-100</v>
       </c>
       <c r="I35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,37 +1619,41 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4100</v>
+        <v>2200</v>
       </c>
       <c r="E41" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F41" s="3">
         <v>100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>400</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
       <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
         <v>100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
+        <v>100</v>
+      </c>
+      <c r="K41" s="3">
         <v>200</v>
       </c>
-      <c r="J41" s="3">
-        <v>200</v>
-      </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1591,8 +1681,11 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1600,13 +1693,13 @@
         <v>0</v>
       </c>
       <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
         <v>200</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
       <c r="G43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H43" s="3">
         <v>100</v>
@@ -1620,8 +1713,11 @@
       <c r="K43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1649,19 +1745,22 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>500</v>
+      </c>
+      <c r="E45" s="3">
         <v>400</v>
       </c>
-      <c r="E45" s="3">
-        <v>300</v>
-      </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
@@ -1678,37 +1777,43 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4600</v>
+        <v>2800</v>
       </c>
       <c r="E46" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F46" s="3">
         <v>500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
+        <v>100</v>
+      </c>
+      <c r="J46" s="3">
         <v>200</v>
       </c>
-      <c r="I46" s="3">
-        <v>200</v>
-      </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1736,22 +1841,25 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>9700</v>
+        <v>9800</v>
       </c>
       <c r="E48" s="3">
-        <v>1100</v>
+        <v>9100</v>
       </c>
       <c r="F48" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="G48" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="H48" s="3">
         <v>1100</v>
@@ -1765,8 +1873,11 @@
       <c r="K48" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1794,8 +1905,11 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,16 +1969,19 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>900</v>
+      </c>
+      <c r="E52" s="3">
         <v>800</v>
-      </c>
-      <c r="E52" s="3">
-        <v>100</v>
       </c>
       <c r="F52" s="3">
         <v>100</v>
@@ -1870,7 +1990,7 @@
         <v>100</v>
       </c>
       <c r="H52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I52" s="3">
         <v>0</v>
@@ -1878,11 +1998,14 @@
       <c r="J52" s="3">
         <v>0</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,37 +2033,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>15100</v>
+        <v>13500</v>
       </c>
       <c r="E54" s="3">
-        <v>1700</v>
+        <v>14200</v>
       </c>
       <c r="F54" s="3">
         <v>1600</v>
       </c>
       <c r="G54" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H54" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I54" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J54" s="3">
         <v>1300</v>
       </c>
-      <c r="H54" s="3">
-        <v>1300</v>
-      </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1400</v>
       </c>
-      <c r="J54" s="3">
-        <v>1400</v>
-      </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,8 +2095,9 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1974,10 +2105,10 @@
         <v>200</v>
       </c>
       <c r="E57" s="3">
+        <v>200</v>
+      </c>
+      <c r="F57" s="3">
         <v>300</v>
-      </c>
-      <c r="F57" s="3">
-        <v>100</v>
       </c>
       <c r="G57" s="3">
         <v>100</v>
@@ -1994,8 +2125,11 @@
       <c r="K57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2003,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F58" s="3">
         <v>100</v>
@@ -2023,8 +2157,11 @@
       <c r="K58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2052,8 +2189,11 @@
       <c r="K59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2061,10 +2201,10 @@
         <v>200</v>
       </c>
       <c r="E60" s="3">
+        <v>200</v>
+      </c>
+      <c r="F60" s="3">
         <v>500</v>
-      </c>
-      <c r="F60" s="3">
-        <v>300</v>
       </c>
       <c r="G60" s="3">
         <v>200</v>
@@ -2081,8 +2221,11 @@
       <c r="K60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2110,8 +2253,11 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2139,8 +2285,11 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,8 +2381,11 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2235,10 +2393,10 @@
         <v>200</v>
       </c>
       <c r="E66" s="3">
+        <v>200</v>
+      </c>
+      <c r="F66" s="3">
         <v>500</v>
-      </c>
-      <c r="F66" s="3">
-        <v>300</v>
       </c>
       <c r="G66" s="3">
         <v>200</v>
@@ -2255,8 +2413,11 @@
       <c r="K66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2491,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,37 +2555,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-58500</v>
+        <v>-55800</v>
       </c>
       <c r="E72" s="3">
-        <v>-58300</v>
+        <v>-55000</v>
       </c>
       <c r="F72" s="3">
-        <v>-58100</v>
+        <v>-54800</v>
       </c>
       <c r="G72" s="3">
-        <v>-58000</v>
+        <v>-54600</v>
       </c>
       <c r="H72" s="3">
-        <v>-57900</v>
+        <v>-54500</v>
       </c>
       <c r="I72" s="3">
+        <v>-54400</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-54400</v>
+      </c>
+      <c r="K72" s="3">
         <v>-57800</v>
       </c>
-      <c r="J72" s="3">
-        <v>-57800</v>
-      </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-57700</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,37 +2683,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>14800</v>
+        <v>13200</v>
       </c>
       <c r="E76" s="3">
+        <v>14000</v>
+      </c>
+      <c r="F76" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G76" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H76" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I76" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J76" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K76" s="3">
         <v>1200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="L76" s="3">
         <v>1300</v>
       </c>
-      <c r="G76" s="3">
-        <v>1100</v>
-      </c>
-      <c r="H76" s="3">
-        <v>1100</v>
-      </c>
-      <c r="I76" s="3">
-        <v>1200</v>
-      </c>
-      <c r="J76" s="3">
-        <v>1200</v>
-      </c>
-      <c r="K76" s="3">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,54 +2747,60 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1200</v>
+        <v>-1000</v>
       </c>
       <c r="E81" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-400</v>
       </c>
-      <c r="F81" s="3">
-        <v>-100</v>
-      </c>
       <c r="G81" s="3">
         <v>-100</v>
       </c>
@@ -2613,16 +2808,19 @@
         <v>-100</v>
       </c>
       <c r="I81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,37 +2832,41 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
         <v>0</v>
       </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+      <c r="E83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,8 +3022,11 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -2817,28 +3034,31 @@
         <v>-800</v>
       </c>
       <c r="E89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F89" s="3">
         <v>-400</v>
       </c>
-      <c r="F89" s="3">
-        <v>-100</v>
-      </c>
       <c r="G89" s="3">
         <v>-100</v>
       </c>
       <c r="H89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,37 +3070,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,37 +3164,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>4</v>
+      <c r="D94" s="3">
+        <v>-900</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
+      <c r="F94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
+      <c r="H94" s="3">
+        <v>0</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="J94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3242,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,23 +3338,26 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>10800</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>9900</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>400</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>4</v>
       </c>
@@ -3124,8 +3370,11 @@
       <c r="K100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3153,33 +3402,39 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>4100</v>
+        <v>-1700</v>
       </c>
       <c r="E102" s="3">
-        <v>-400</v>
+        <v>3800</v>
       </c>
       <c r="F102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G102" s="3">
         <v>400</v>
       </c>
-      <c r="G102" s="3">
-        <v>-100</v>
-      </c>
       <c r="H102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GBRCF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GBRCF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="92">
   <si>
     <t>GBRCF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,59 +665,67 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -748,8 +756,14 @@
       <c r="L8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -780,8 +794,14 @@
       <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +832,14 @@
       <c r="L10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,8 +852,10 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -858,8 +886,14 @@
       <c r="L12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,20 +924,26 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3">
+        <v>400</v>
+      </c>
+      <c r="F14" s="3">
         <v>200</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>4</v>
       </c>
@@ -916,14 +956,20 @@
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -933,11 +979,11 @@
       <c r="E15" s="3">
         <v>0</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>4</v>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>4</v>
@@ -954,8 +1000,14 @@
       <c r="L15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,25 +1017,27 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="E17" s="3">
         <v>1100</v>
       </c>
       <c r="F17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H17" s="3">
         <v>400</v>
-      </c>
-      <c r="G17" s="3">
-        <v>100</v>
-      </c>
-      <c r="H17" s="3">
-        <v>100</v>
       </c>
       <c r="I17" s="3">
         <v>100</v>
@@ -997,8 +1051,14 @@
       <c r="L17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3">
+        <v>100</v>
+      </c>
+      <c r="N17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1009,14 +1069,14 @@
         <v>-1100</v>
       </c>
       <c r="F18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="H18" s="3">
         <v>-400</v>
       </c>
-      <c r="G18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-100</v>
-      </c>
       <c r="I18" s="3">
         <v>-100</v>
       </c>
@@ -1029,8 +1089,14 @@
       <c r="L18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,8 +1109,10 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1075,19 +1143,25 @@
       <c r="L20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
+      <c r="E21" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-1000</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>4</v>
@@ -1107,8 +1181,14 @@
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1139,40 +1219,52 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1000</v>
+        <v>-600</v>
       </c>
       <c r="E23" s="3">
         <v>-1100</v>
       </c>
       <c r="F23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="H23" s="3">
         <v>-400</v>
       </c>
-      <c r="G23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-100</v>
-      </c>
       <c r="I23" s="3">
         <v>-100</v>
       </c>
       <c r="J23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K23" s="3">
         <v>-100</v>
       </c>
       <c r="L23" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1203,8 +1295,14 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,72 +1333,90 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1000</v>
+        <v>-600</v>
       </c>
       <c r="E26" s="3">
         <v>-1100</v>
       </c>
       <c r="F26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="H26" s="3">
         <v>-400</v>
       </c>
-      <c r="G26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-100</v>
-      </c>
       <c r="I26" s="3">
         <v>-100</v>
       </c>
       <c r="J26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K26" s="3">
         <v>-100</v>
       </c>
       <c r="L26" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1000</v>
+        <v>-600</v>
       </c>
       <c r="E27" s="3">
         <v>-1100</v>
       </c>
       <c r="F27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="H27" s="3">
         <v>-400</v>
       </c>
-      <c r="G27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-100</v>
-      </c>
       <c r="I27" s="3">
         <v>-100</v>
       </c>
       <c r="J27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K27" s="3">
         <v>-100</v>
       </c>
       <c r="L27" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1447,14 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1363,8 +1485,14 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1523,14 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,8 +1561,14 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1459,40 +1599,52 @@
       <c r="L32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1000</v>
+        <v>-600</v>
       </c>
       <c r="E33" s="3">
         <v>-1100</v>
       </c>
       <c r="F33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="H33" s="3">
         <v>-400</v>
       </c>
-      <c r="G33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-100</v>
-      </c>
       <c r="I33" s="3">
         <v>-100</v>
       </c>
       <c r="J33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K33" s="3">
         <v>-100</v>
       </c>
       <c r="L33" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,77 +1675,95 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1000</v>
+        <v>-600</v>
       </c>
       <c r="E35" s="3">
         <v>-1100</v>
       </c>
       <c r="F35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="H35" s="3">
         <v>-400</v>
       </c>
-      <c r="G35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-100</v>
-      </c>
       <c r="I35" s="3">
         <v>-100</v>
       </c>
       <c r="J35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K35" s="3">
         <v>-100</v>
       </c>
       <c r="L35" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1776,10 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,40 +1792,48 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F41" s="3">
         <v>2200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>3900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>400</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
         <v>100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1684,8 +1864,14 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1696,16 +1882,16 @@
         <v>0</v>
       </c>
       <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
         <v>200</v>
       </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>100</v>
-      </c>
       <c r="I43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J43" s="3">
         <v>100</v>
@@ -1716,8 +1902,14 @@
       <c r="L43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>100</v>
+      </c>
+      <c r="N43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1748,8 +1940,14 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1757,17 +1955,17 @@
         <v>500</v>
       </c>
       <c r="E45" s="3">
+        <v>600</v>
+      </c>
+      <c r="F45" s="3">
+        <v>500</v>
+      </c>
+      <c r="G45" s="3">
         <v>400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>200</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
       <c r="I45" s="3">
         <v>0</v>
       </c>
@@ -1780,40 +1978,52 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F46" s="3">
         <v>2800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>4300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1844,28 +2054,34 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>9800</v>
+        <v>10700</v>
       </c>
       <c r="E48" s="3">
-        <v>9100</v>
+        <v>10000</v>
       </c>
       <c r="F48" s="3">
+        <v>9900</v>
+      </c>
+      <c r="G48" s="3">
+        <v>9200</v>
+      </c>
+      <c r="H48" s="3">
         <v>1000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>1000</v>
-      </c>
-      <c r="H48" s="3">
-        <v>1100</v>
-      </c>
-      <c r="I48" s="3">
-        <v>1100</v>
       </c>
       <c r="J48" s="3">
         <v>1100</v>
@@ -1876,8 +2092,14 @@
       <c r="L48" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N48" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1908,8 +2130,14 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2168,14 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,40 +2206,52 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="E52" s="3">
         <v>800</v>
       </c>
       <c r="F52" s="3">
-        <v>100</v>
+        <v>900</v>
       </c>
       <c r="G52" s="3">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="H52" s="3">
         <v>100</v>
       </c>
       <c r="I52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,40 +2282,52 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>13500</v>
+        <v>12200</v>
       </c>
       <c r="E54" s="3">
-        <v>14200</v>
+        <v>12600</v>
       </c>
       <c r="F54" s="3">
+        <v>13600</v>
+      </c>
+      <c r="G54" s="3">
+        <v>14300</v>
+      </c>
+      <c r="H54" s="3">
         <v>1600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2340,10 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,25 +2356,27 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>100</v>
+      </c>
+      <c r="F57" s="3">
         <v>200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>300</v>
-      </c>
-      <c r="G57" s="3">
-        <v>100</v>
-      </c>
-      <c r="H57" s="3">
-        <v>100</v>
       </c>
       <c r="I57" s="3">
         <v>100</v>
@@ -2128,8 +2390,14 @@
       <c r="L57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3">
+        <v>100</v>
+      </c>
+      <c r="N57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2140,10 +2408,10 @@
         <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H58" s="3">
         <v>100</v>
@@ -2160,8 +2428,14 @@
       <c r="L58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>100</v>
+      </c>
+      <c r="N58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2192,25 +2466,31 @@
       <c r="L59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>100</v>
+      </c>
+      <c r="F60" s="3">
         <v>200</v>
-      </c>
-      <c r="E60" s="3">
-        <v>200</v>
-      </c>
-      <c r="F60" s="3">
-        <v>500</v>
       </c>
       <c r="G60" s="3">
         <v>200</v>
       </c>
       <c r="H60" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="I60" s="3">
         <v>200</v>
@@ -2224,8 +2504,14 @@
       <c r="L60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3">
+        <v>200</v>
+      </c>
+      <c r="N60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2256,8 +2542,14 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2288,8 +2580,14 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2618,14 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2656,14 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,25 +2694,31 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>100</v>
+      </c>
+      <c r="F66" s="3">
         <v>200</v>
-      </c>
-      <c r="E66" s="3">
-        <v>200</v>
-      </c>
-      <c r="F66" s="3">
-        <v>500</v>
       </c>
       <c r="G66" s="3">
         <v>200</v>
       </c>
       <c r="H66" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="I66" s="3">
         <v>200</v>
@@ -2416,8 +2732,14 @@
       <c r="L66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3">
+        <v>200</v>
+      </c>
+      <c r="N66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2752,10 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2786,14 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2824,14 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2526,8 +2862,14 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,40 +2900,52 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-55800</v>
+        <v>-57400</v>
       </c>
       <c r="E72" s="3">
+        <v>-57100</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-56200</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-55400</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-55200</v>
+      </c>
+      <c r="I72" s="3">
         <v>-55000</v>
       </c>
-      <c r="F72" s="3">
-        <v>-54800</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-54600</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-54500</v>
-      </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
+        <v>-54900</v>
+      </c>
+      <c r="K72" s="3">
         <v>-54400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-54400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-57800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-57700</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2976,14 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +3014,14 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,40 +3052,52 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>13200</v>
+        <v>12100</v>
       </c>
       <c r="E76" s="3">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="F76" s="3">
+        <v>13300</v>
+      </c>
+      <c r="G76" s="3">
+        <v>14100</v>
+      </c>
+      <c r="H76" s="3">
         <v>1100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>1300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>1000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>1100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,77 +3128,95 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1000</v>
+        <v>-600</v>
       </c>
       <c r="E81" s="3">
         <v>-1100</v>
       </c>
       <c r="F81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="H81" s="3">
         <v>-400</v>
       </c>
-      <c r="G81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-100</v>
-      </c>
       <c r="I81" s="3">
         <v>-100</v>
       </c>
       <c r="J81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K81" s="3">
         <v>-100</v>
       </c>
       <c r="L81" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,19 +3229,21 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
         <v>0</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>4</v>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>4</v>
@@ -2859,14 +3257,20 @@
       <c r="J83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3301,14 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3339,14 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3377,14 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3415,14 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,40 +3453,52 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F89" s="3">
         <v>-800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-400</v>
       </c>
-      <c r="G89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
       <c r="I89" s="3">
         <v>-100</v>
       </c>
       <c r="J89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K89" s="3">
         <v>-100</v>
       </c>
       <c r="L89" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,19 +3511,21 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
+        <v>-700</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>4</v>
@@ -3097,14 +3539,20 @@
       <c r="J91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3583,14 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,40 +3621,52 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F94" s="3">
         <v>-900</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="G94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,8 +3679,10 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3245,8 +3713,14 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3751,14 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3789,14 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,29 +3827,35 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
-        <v>9900</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>10000</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>400</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>4</v>
       </c>
@@ -3373,8 +3865,14 @@
       <c r="L100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3405,29 +3903,35 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-1700</v>
       </c>
-      <c r="E102" s="3">
-        <v>3800</v>
-      </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
+        <v>3900</v>
+      </c>
+      <c r="H102" s="3">
         <v>-300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>400</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>-100</v>
-      </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
@@ -3435,6 +3939,12 @@
         <v>-100</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GBRCF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GBRCF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="92">
   <si>
     <t>GBRCF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,67 +665,70 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -762,8 +765,11 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -800,8 +806,11 @@
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,8 +847,11 @@
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -854,8 +866,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -892,8 +905,11 @@
       <c r="N12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,23 +946,26 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3">
         <v>400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>200</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
@@ -962,14 +981,17 @@
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -985,8 +1007,8 @@
       <c r="G15" s="3">
         <v>0</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>4</v>
+      <c r="H15" s="3">
+        <v>0</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>4</v>
@@ -1006,8 +1028,11 @@
       <c r="N15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,28 +1044,29 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E17" s="3">
         <v>600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>400</v>
-      </c>
-      <c r="I17" s="3">
-        <v>100</v>
       </c>
       <c r="J17" s="3">
         <v>100</v>
@@ -1057,8 +1083,11 @@
       <c r="N17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1066,20 +1095,20 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-400</v>
       </c>
-      <c r="I18" s="3">
-        <v>-100</v>
-      </c>
       <c r="J18" s="3">
         <v>-100</v>
       </c>
@@ -1095,8 +1124,11 @@
       <c r="N18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,8 +1143,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1149,8 +1182,11 @@
       <c r="N20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1158,14 +1194,14 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1000</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1187,8 +1223,11 @@
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1225,29 +1264,32 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-400</v>
       </c>
-      <c r="I23" s="3">
-        <v>-100</v>
-      </c>
       <c r="J23" s="3">
         <v>-100</v>
       </c>
@@ -1255,16 +1297,19 @@
         <v>-100</v>
       </c>
       <c r="L23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1301,8 +1346,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,29 +1387,32 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-400</v>
       </c>
-      <c r="I26" s="3">
-        <v>-100</v>
-      </c>
       <c r="J26" s="3">
         <v>-100</v>
       </c>
@@ -1369,37 +1420,40 @@
         <v>-100</v>
       </c>
       <c r="L26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-400</v>
       </c>
-      <c r="I27" s="3">
-        <v>-100</v>
-      </c>
       <c r="J27" s="3">
         <v>-100</v>
       </c>
@@ -1407,16 +1461,19 @@
         <v>-100</v>
       </c>
       <c r="L27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1510,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1491,8 +1551,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1592,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,8 +1633,11 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1605,29 +1674,32 @@
       <c r="N32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-400</v>
       </c>
-      <c r="I33" s="3">
-        <v>-100</v>
-      </c>
       <c r="J33" s="3">
         <v>-100</v>
       </c>
@@ -1635,16 +1707,19 @@
         <v>-100</v>
       </c>
       <c r="L33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,29 +1756,32 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-400</v>
       </c>
-      <c r="I35" s="3">
-        <v>-100</v>
-      </c>
       <c r="J35" s="3">
         <v>-100</v>
       </c>
@@ -1711,59 +1789,65 @@
         <v>-100</v>
       </c>
       <c r="L35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1862,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,46 +1879,50 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E41" s="3">
         <v>300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>400</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L41" s="3">
         <v>100</v>
       </c>
       <c r="M41" s="3">
+        <v>100</v>
+      </c>
+      <c r="N41" s="3">
         <v>200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1870,8 +1959,11 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1888,13 +1980,13 @@
         <v>0</v>
       </c>
       <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
         <v>200</v>
       </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
       <c r="J43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K43" s="3">
         <v>100</v>
@@ -1908,8 +2000,11 @@
       <c r="N43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1946,29 +2041,32 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>300</v>
+      </c>
+      <c r="E45" s="3">
         <v>500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>200</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
       <c r="J45" s="3">
         <v>0</v>
       </c>
@@ -1984,46 +2082,52 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E46" s="3">
         <v>800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>400</v>
-      </c>
-      <c r="J46" s="3">
-        <v>100</v>
       </c>
       <c r="K46" s="3">
         <v>100</v>
       </c>
       <c r="L46" s="3">
+        <v>100</v>
+      </c>
+      <c r="M46" s="3">
         <v>200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2060,31 +2164,34 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E48" s="3">
         <v>10700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>10000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>9900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>9200</v>
-      </c>
-      <c r="H48" s="3">
-        <v>1000</v>
       </c>
       <c r="I48" s="3">
         <v>1000</v>
       </c>
       <c r="J48" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="K48" s="3">
         <v>1100</v>
@@ -2098,8 +2205,11 @@
       <c r="N48" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2136,8 +2246,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2287,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,25 +2328,28 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>800</v>
+      </c>
+      <c r="E52" s="3">
         <v>700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>800</v>
-      </c>
-      <c r="H52" s="3">
-        <v>100</v>
       </c>
       <c r="I52" s="3">
         <v>100</v>
@@ -2239,7 +2358,7 @@
         <v>100</v>
       </c>
       <c r="K52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
@@ -2247,11 +2366,14 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,46 +2410,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E54" s="3">
         <v>12200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>12600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>13600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>14300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1500</v>
-      </c>
-      <c r="J54" s="3">
-        <v>1200</v>
       </c>
       <c r="K54" s="3">
         <v>1200</v>
       </c>
       <c r="L54" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M54" s="3">
         <v>1300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2470,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,28 +2487,29 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E57" s="3">
         <v>100</v>
       </c>
       <c r="F57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G57" s="3">
         <v>200</v>
       </c>
       <c r="H57" s="3">
+        <v>200</v>
+      </c>
+      <c r="I57" s="3">
         <v>300</v>
-      </c>
-      <c r="I57" s="3">
-        <v>100</v>
       </c>
       <c r="J57" s="3">
         <v>100</v>
@@ -2396,8 +2526,11 @@
       <c r="N57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2414,7 +2547,7 @@
         <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I58" s="3">
         <v>100</v>
@@ -2434,8 +2567,11 @@
       <c r="N58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2472,28 +2608,31 @@
       <c r="N59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E60" s="3">
         <v>100</v>
       </c>
       <c r="F60" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G60" s="3">
         <v>200</v>
       </c>
       <c r="H60" s="3">
+        <v>200</v>
+      </c>
+      <c r="I60" s="3">
         <v>500</v>
-      </c>
-      <c r="I60" s="3">
-        <v>200</v>
       </c>
       <c r="J60" s="3">
         <v>200</v>
@@ -2510,8 +2649,11 @@
       <c r="N60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2548,8 +2690,11 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2586,8 +2731,11 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2772,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2813,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,28 +2854,31 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E66" s="3">
         <v>100</v>
       </c>
       <c r="F66" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G66" s="3">
         <v>200</v>
       </c>
       <c r="H66" s="3">
+        <v>200</v>
+      </c>
+      <c r="I66" s="3">
         <v>500</v>
-      </c>
-      <c r="I66" s="3">
-        <v>200</v>
       </c>
       <c r="J66" s="3">
         <v>200</v>
@@ -2738,8 +2895,11 @@
       <c r="N66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +2914,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +2953,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +2994,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2868,8 +3035,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,46 +3076,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-58000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-57400</v>
       </c>
-      <c r="E72" s="3">
-        <v>-57100</v>
-      </c>
       <c r="F72" s="3">
+        <v>-57000</v>
+      </c>
+      <c r="G72" s="3">
         <v>-56200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-55400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-55200</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-55000</v>
       </c>
       <c r="J72" s="3">
         <v>-54900</v>
       </c>
       <c r="K72" s="3">
-        <v>-54400</v>
+        <v>-54900</v>
       </c>
       <c r="L72" s="3">
         <v>-54400</v>
       </c>
       <c r="M72" s="3">
+        <v>-54400</v>
+      </c>
+      <c r="N72" s="3">
         <v>-57800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-57700</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3158,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3199,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,46 +3240,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E76" s="3">
         <v>12100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>12500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>13300</v>
       </c>
-      <c r="G76" s="3">
-        <v>14100</v>
-      </c>
       <c r="H76" s="3">
+        <v>14000</v>
+      </c>
+      <c r="I76" s="3">
         <v>1100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1000</v>
-      </c>
-      <c r="K76" s="3">
-        <v>1100</v>
       </c>
       <c r="L76" s="3">
         <v>1100</v>
       </c>
       <c r="M76" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N76" s="3">
         <v>1200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,72 +3322,78 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-400</v>
       </c>
-      <c r="I81" s="3">
-        <v>-100</v>
-      </c>
       <c r="J81" s="3">
         <v>-100</v>
       </c>
@@ -3207,16 +3401,19 @@
         <v>-100</v>
       </c>
       <c r="L81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,8 +3428,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3245,8 +3443,8 @@
       <c r="F83" s="3">
         <v>0</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>4</v>
+      <c r="G83" s="3">
+        <v>0</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>4</v>
@@ -3263,14 +3461,17 @@
       <c r="L83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
+      <c r="M83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3508,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3549,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3590,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3631,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,8 +3672,11 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3468,20 +3684,20 @@
         <v>-200</v>
       </c>
       <c r="E89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-400</v>
       </c>
-      <c r="I89" s="3">
-        <v>-100</v>
-      </c>
       <c r="J89" s="3">
         <v>-100</v>
       </c>
@@ -3489,16 +3705,19 @@
         <v>-100</v>
       </c>
       <c r="L89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,22 +3732,23 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-700</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>4</v>
@@ -3545,14 +3765,17 @@
       <c r="L91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +3812,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,46 +3853,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-900</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
+      <c r="I94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +3913,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +3952,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +3993,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4034,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,32 +4075,35 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>4600</v>
       </c>
       <c r="E100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>10000</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>400</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>4</v>
       </c>
@@ -3871,8 +4116,11 @@
       <c r="N100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3909,42 +4157,48 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>3900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>400</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GBRCF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GBRCF_QTR_FIN.xlsx
@@ -961,7 +961,7 @@
         <v>4</v>
       </c>
       <c r="F14" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G14" s="3">
         <v>200</v>
@@ -1054,7 +1054,7 @@
         <v>1000</v>
       </c>
       <c r="E17" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F17" s="3">
         <v>1100</v>
@@ -1095,7 +1095,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="F18" s="3">
         <v>-1100</v>
@@ -1197,7 +1197,7 @@
         <v>-500</v>
       </c>
       <c r="F21" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="G21" s="3">
         <v>-1000</v>
@@ -1276,7 +1276,7 @@
         <v>-1000</v>
       </c>
       <c r="E23" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="F23" s="3">
         <v>-1100</v>
@@ -1399,7 +1399,7 @@
         <v>-1000</v>
       </c>
       <c r="E26" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="F26" s="3">
         <v>-1100</v>
@@ -1440,7 +1440,7 @@
         <v>-1000</v>
       </c>
       <c r="E27" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="F27" s="3">
         <v>-1100</v>
@@ -1686,7 +1686,7 @@
         <v>-1000</v>
       </c>
       <c r="E33" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="F33" s="3">
         <v>-1100</v>
@@ -1768,7 +1768,7 @@
         <v>-1000</v>
       </c>
       <c r="E35" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="F35" s="3">
         <v>-1100</v>
@@ -1886,7 +1886,7 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="E41" s="3">
         <v>300</v>
@@ -1898,7 +1898,7 @@
         <v>2200</v>
       </c>
       <c r="H41" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="I41" s="3">
         <v>100</v>
@@ -1983,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J43" s="3">
         <v>0</v>
@@ -2091,7 +2091,7 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4600</v>
+        <v>4400</v>
       </c>
       <c r="E46" s="3">
         <v>800</v>
@@ -2100,13 +2100,13 @@
         <v>1800</v>
       </c>
       <c r="G46" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="H46" s="3">
-        <v>4300</v>
+        <v>4200</v>
       </c>
       <c r="I46" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J46" s="3">
         <v>400</v>
@@ -2173,19 +2173,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>11200</v>
+        <v>10900</v>
       </c>
       <c r="E48" s="3">
-        <v>10700</v>
+        <v>10400</v>
       </c>
       <c r="F48" s="3">
-        <v>10000</v>
+        <v>9800</v>
       </c>
       <c r="G48" s="3">
-        <v>9900</v>
+        <v>9600</v>
       </c>
       <c r="H48" s="3">
-        <v>9200</v>
+        <v>9000</v>
       </c>
       <c r="I48" s="3">
         <v>1000</v>
@@ -2343,7 +2343,7 @@
         <v>700</v>
       </c>
       <c r="F52" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="G52" s="3">
         <v>900</v>
@@ -2419,22 +2419,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>16500</v>
+        <v>16100</v>
       </c>
       <c r="E54" s="3">
-        <v>12200</v>
+        <v>11900</v>
       </c>
       <c r="F54" s="3">
-        <v>12600</v>
+        <v>12300</v>
       </c>
       <c r="G54" s="3">
-        <v>13600</v>
+        <v>13300</v>
       </c>
       <c r="H54" s="3">
-        <v>14300</v>
+        <v>13900</v>
       </c>
       <c r="I54" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="J54" s="3">
         <v>1500</v>
@@ -2632,7 +2632,7 @@
         <v>200</v>
       </c>
       <c r="I60" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J60" s="3">
         <v>200</v>
@@ -2878,7 +2878,7 @@
         <v>200</v>
       </c>
       <c r="I66" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J66" s="3">
         <v>200</v>
@@ -3085,25 +3085,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-58000</v>
+        <v>-56700</v>
       </c>
       <c r="E72" s="3">
-        <v>-57400</v>
+        <v>-56100</v>
       </c>
       <c r="F72" s="3">
-        <v>-57000</v>
+        <v>-55700</v>
       </c>
       <c r="G72" s="3">
-        <v>-56200</v>
+        <v>-54900</v>
       </c>
       <c r="H72" s="3">
-        <v>-55400</v>
+        <v>-54100</v>
       </c>
       <c r="I72" s="3">
-        <v>-55200</v>
+        <v>-53900</v>
       </c>
       <c r="J72" s="3">
-        <v>-54900</v>
+        <v>-53700</v>
       </c>
       <c r="K72" s="3">
         <v>-54900</v>
@@ -3249,25 +3249,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>16100</v>
+        <v>15800</v>
       </c>
       <c r="E76" s="3">
-        <v>12100</v>
+        <v>11800</v>
       </c>
       <c r="F76" s="3">
-        <v>12500</v>
+        <v>12200</v>
       </c>
       <c r="G76" s="3">
-        <v>13300</v>
+        <v>13000</v>
       </c>
       <c r="H76" s="3">
-        <v>14000</v>
+        <v>13700</v>
       </c>
       <c r="I76" s="3">
         <v>1100</v>
       </c>
       <c r="J76" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="K76" s="3">
         <v>1000</v>
@@ -3380,7 +3380,7 @@
         <v>-1000</v>
       </c>
       <c r="E81" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="F81" s="3">
         <v>-1100</v>
@@ -3696,7 +3696,7 @@
         <v>-700</v>
       </c>
       <c r="I89" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="J89" s="3">
         <v>-100</v>
@@ -4084,7 +4084,7 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>4600</v>
+        <v>4500</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -4096,7 +4096,7 @@
         <v>100</v>
       </c>
       <c r="H100" s="3">
-        <v>10000</v>
+        <v>9700</v>
       </c>
       <c r="I100" s="3">
         <v>0</v>
@@ -4166,19 +4166,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="E102" s="3">
         <v>-900</v>
       </c>
       <c r="F102" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="G102" s="3">
-        <v>-1700</v>
+        <v>-1600</v>
       </c>
       <c r="H102" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="I102" s="3">
         <v>-300</v>

--- a/AAII_Financials/Quarterly/GBRCF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GBRCF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="92">
   <si>
     <t>GBRCF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,70 +665,74 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -768,8 +772,11 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -809,8 +816,11 @@
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -850,8 +860,11 @@
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -867,8 +880,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -908,8 +922,11 @@
       <c r="O12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,26 +966,29 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3">
         <v>300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>200</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
@@ -984,14 +1004,17 @@
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1010,8 +1033,8 @@
       <c r="H15" s="3">
         <v>0</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>4</v>
+      <c r="I15" s="3">
+        <v>0</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>4</v>
@@ -1031,8 +1054,11 @@
       <c r="O15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,31 +1071,32 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>600</v>
+      </c>
+      <c r="E17" s="3">
         <v>1000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>400</v>
-      </c>
-      <c r="J17" s="3">
-        <v>100</v>
       </c>
       <c r="K17" s="3">
         <v>100</v>
@@ -1086,8 +1113,11 @@
       <c r="O17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1095,22 +1125,22 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-400</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-100</v>
       </c>
       <c r="K18" s="3">
         <v>-100</v>
@@ -1127,8 +1157,11 @@
       <c r="O18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,8 +1177,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1185,8 +1219,11 @@
       <c r="O20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1194,17 +1231,17 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F21" s="3">
         <v>-500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="H21" s="3">
         <v>-1000</v>
       </c>
-      <c r="G21" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1226,8 +1263,11 @@
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1267,31 +1307,34 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-400</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-100</v>
       </c>
       <c r="K23" s="3">
         <v>-100</v>
@@ -1300,16 +1343,19 @@
         <v>-100</v>
       </c>
       <c r="M23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1349,8 +1395,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,31 +1439,34 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-400</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-100</v>
       </c>
       <c r="K26" s="3">
         <v>-100</v>
@@ -1423,39 +1475,42 @@
         <v>-100</v>
       </c>
       <c r="M26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-400</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-100</v>
       </c>
       <c r="K27" s="3">
         <v>-100</v>
@@ -1464,16 +1519,19 @@
         <v>-100</v>
       </c>
       <c r="M27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1554,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,8 +1703,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1677,31 +1747,34 @@
       <c r="O32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-400</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-100</v>
       </c>
       <c r="K33" s="3">
         <v>-100</v>
@@ -1710,16 +1783,19 @@
         <v>-100</v>
       </c>
       <c r="M33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,31 +1835,34 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-400</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-100</v>
       </c>
       <c r="K35" s="3">
         <v>-100</v>
@@ -1792,62 +1871,68 @@
         <v>-100</v>
       </c>
       <c r="M35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,49 +1966,53 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4100</v>
+        <v>2900</v>
       </c>
       <c r="E41" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F41" s="3">
         <v>300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2200</v>
       </c>
-      <c r="H41" s="3">
-        <v>3800</v>
-      </c>
       <c r="I41" s="3">
+        <v>3900</v>
+      </c>
+      <c r="J41" s="3">
         <v>100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>400</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
       <c r="L41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M41" s="3">
         <v>100</v>
       </c>
       <c r="N41" s="3">
+        <v>100</v>
+      </c>
+      <c r="O41" s="3">
         <v>200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1962,8 +2052,11 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1983,13 +2076,13 @@
         <v>0</v>
       </c>
       <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
         <v>100</v>
       </c>
-      <c r="J43" s="3">
-        <v>0</v>
-      </c>
       <c r="K43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L43" s="3">
         <v>100</v>
@@ -2003,8 +2096,11 @@
       <c r="O43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2044,32 +2140,35 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>400</v>
+      </c>
+      <c r="E45" s="3">
         <v>300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>200</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
       <c r="K45" s="3">
         <v>0</v>
       </c>
@@ -2085,49 +2184,55 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4400</v>
+        <v>3400</v>
       </c>
       <c r="E46" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F46" s="3">
         <v>800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1800</v>
       </c>
-      <c r="G46" s="3">
-        <v>2700</v>
-      </c>
       <c r="H46" s="3">
-        <v>4200</v>
+        <v>2800</v>
       </c>
       <c r="I46" s="3">
+        <v>4300</v>
+      </c>
+      <c r="J46" s="3">
+        <v>500</v>
+      </c>
+      <c r="K46" s="3">
         <v>400</v>
-      </c>
-      <c r="J46" s="3">
-        <v>400</v>
-      </c>
-      <c r="K46" s="3">
-        <v>100</v>
       </c>
       <c r="L46" s="3">
         <v>100</v>
       </c>
       <c r="M46" s="3">
+        <v>100</v>
+      </c>
+      <c r="N46" s="3">
         <v>200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2167,34 +2272,37 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>10900</v>
+        <v>11600</v>
       </c>
       <c r="E48" s="3">
-        <v>10400</v>
+        <v>11000</v>
       </c>
       <c r="F48" s="3">
+        <v>10500</v>
+      </c>
+      <c r="G48" s="3">
         <v>9800</v>
       </c>
-      <c r="G48" s="3">
-        <v>9600</v>
-      </c>
       <c r="H48" s="3">
-        <v>9000</v>
+        <v>9700</v>
       </c>
       <c r="I48" s="3">
-        <v>1000</v>
+        <v>9100</v>
       </c>
       <c r="J48" s="3">
         <v>1000</v>
       </c>
       <c r="K48" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="L48" s="3">
         <v>1100</v>
@@ -2208,8 +2316,11 @@
       <c r="O48" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2249,8 +2360,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,8 +2448,11 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2340,19 +2460,19 @@
         <v>800</v>
       </c>
       <c r="E52" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="F52" s="3">
         <v>700</v>
       </c>
       <c r="G52" s="3">
+        <v>700</v>
+      </c>
+      <c r="H52" s="3">
         <v>900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>800</v>
-      </c>
-      <c r="I52" s="3">
-        <v>100</v>
       </c>
       <c r="J52" s="3">
         <v>100</v>
@@ -2361,7 +2481,7 @@
         <v>100</v>
       </c>
       <c r="L52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
@@ -2369,11 +2489,14 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,49 +2536,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>16100</v>
+        <v>15800</v>
       </c>
       <c r="E54" s="3">
-        <v>11900</v>
+        <v>16300</v>
       </c>
       <c r="F54" s="3">
-        <v>12300</v>
+        <v>12000</v>
       </c>
       <c r="G54" s="3">
-        <v>13300</v>
+        <v>12400</v>
       </c>
       <c r="H54" s="3">
-        <v>13900</v>
+        <v>13400</v>
       </c>
       <c r="I54" s="3">
-        <v>1500</v>
+        <v>14100</v>
       </c>
       <c r="J54" s="3">
         <v>1500</v>
       </c>
       <c r="K54" s="3">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="L54" s="3">
         <v>1200</v>
       </c>
       <c r="M54" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N54" s="3">
         <v>1300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,8 +2618,9 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2497,22 +2628,22 @@
         <v>300</v>
       </c>
       <c r="E57" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F57" s="3">
         <v>100</v>
       </c>
       <c r="G57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H57" s="3">
         <v>200</v>
       </c>
       <c r="I57" s="3">
+        <v>200</v>
+      </c>
+      <c r="J57" s="3">
         <v>300</v>
-      </c>
-      <c r="J57" s="3">
-        <v>100</v>
       </c>
       <c r="K57" s="3">
         <v>100</v>
@@ -2529,8 +2660,11 @@
       <c r="O57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2550,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J58" s="3">
         <v>100</v>
@@ -2570,8 +2704,11 @@
       <c r="O58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2611,8 +2748,11 @@
       <c r="O59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2620,22 +2760,22 @@
         <v>300</v>
       </c>
       <c r="E60" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F60" s="3">
         <v>100</v>
       </c>
       <c r="G60" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H60" s="3">
         <v>200</v>
       </c>
       <c r="I60" s="3">
+        <v>200</v>
+      </c>
+      <c r="J60" s="3">
         <v>400</v>
-      </c>
-      <c r="J60" s="3">
-        <v>200</v>
       </c>
       <c r="K60" s="3">
         <v>200</v>
@@ -2652,8 +2792,11 @@
       <c r="O60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2693,8 +2836,11 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2734,8 +2880,11 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,8 +3012,11 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2866,22 +3024,22 @@
         <v>300</v>
       </c>
       <c r="E66" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F66" s="3">
         <v>100</v>
       </c>
       <c r="G66" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H66" s="3">
         <v>200</v>
       </c>
       <c r="I66" s="3">
+        <v>200</v>
+      </c>
+      <c r="J66" s="3">
         <v>400</v>
-      </c>
-      <c r="J66" s="3">
-        <v>200</v>
       </c>
       <c r="K66" s="3">
         <v>200</v>
@@ -2898,8 +3056,11 @@
       <c r="O66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3038,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,49 +3250,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-56700</v>
+        <v>-57600</v>
       </c>
       <c r="E72" s="3">
-        <v>-56100</v>
+        <v>-57200</v>
       </c>
       <c r="F72" s="3">
-        <v>-55700</v>
+        <v>-56600</v>
       </c>
       <c r="G72" s="3">
+        <v>-56200</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-55400</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-54600</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-54400</v>
+      </c>
+      <c r="K72" s="3">
+        <v>-53700</v>
+      </c>
+      <c r="L72" s="3">
         <v>-54900</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-54100</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-53900</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-53700</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-54900</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-54400</v>
       </c>
       <c r="M72" s="3">
         <v>-54400</v>
       </c>
       <c r="N72" s="3">
+        <v>-54400</v>
+      </c>
+      <c r="O72" s="3">
         <v>-57800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-57700</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,49 +3426,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>15800</v>
+        <v>15500</v>
       </c>
       <c r="E76" s="3">
-        <v>11800</v>
+        <v>15900</v>
       </c>
       <c r="F76" s="3">
-        <v>12200</v>
+        <v>11900</v>
       </c>
       <c r="G76" s="3">
-        <v>13000</v>
+        <v>12300</v>
       </c>
       <c r="H76" s="3">
-        <v>13700</v>
+        <v>13100</v>
       </c>
       <c r="I76" s="3">
+        <v>13900</v>
+      </c>
+      <c r="J76" s="3">
         <v>1100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1000</v>
-      </c>
-      <c r="L76" s="3">
-        <v>1100</v>
       </c>
       <c r="M76" s="3">
         <v>1100</v>
       </c>
       <c r="N76" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O76" s="3">
         <v>1200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,77 +3514,83 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-400</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-100</v>
       </c>
       <c r="K81" s="3">
         <v>-100</v>
@@ -3404,16 +3599,19 @@
         <v>-100</v>
       </c>
       <c r="M81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,8 +3627,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3446,8 +3645,8 @@
       <c r="G83" s="3">
         <v>0</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>4</v>
+      <c r="H83" s="3">
+        <v>0</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>4</v>
@@ -3464,14 +3663,17 @@
       <c r="M83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
+      <c r="N83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,31 +3889,34 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-200</v>
+        <v>-600</v>
       </c>
       <c r="E89" s="3">
         <v>-200</v>
       </c>
       <c r="F89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G89" s="3">
         <v>-500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-700</v>
       </c>
-      <c r="I89" s="3">
-        <v>-300</v>
-      </c>
       <c r="J89" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="K89" s="3">
         <v>-100</v>
@@ -3708,16 +3925,19 @@
         <v>-100</v>
       </c>
       <c r="M89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,25 +3953,26 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-700</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>4</v>
@@ -3768,14 +3989,17 @@
       <c r="M91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,49 +4083,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-900</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="J94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>4</v>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,35 +4321,38 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>4600</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>-100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
-        <v>9700</v>
-      </c>
       <c r="I100" s="3">
-        <v>0</v>
+        <v>9800</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>400</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>4</v>
       </c>
@@ -4119,8 +4365,11 @@
       <c r="O100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4160,45 +4409,51 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E102" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G102" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="H102" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="I102" s="3">
         <v>3800</v>
       </c>
-      <c r="E102" s="3">
-        <v>-900</v>
-      </c>
-      <c r="F102" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="G102" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="H102" s="3">
-        <v>3800</v>
-      </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>400</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GBRCF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GBRCF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="92">
   <si>
     <t>GBRCF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,78 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -775,8 +779,11 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -819,8 +826,11 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +873,11 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +894,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +939,11 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,29 +986,32 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
+        <v>200</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3">
         <v>300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>200</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1007,14 +1027,17 @@
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1036,8 +1059,8 @@
       <c r="I15" s="3">
         <v>0</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>4</v>
+      <c r="J15" s="3">
+        <v>0</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>4</v>
@@ -1057,8 +1080,11 @@
       <c r="P15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,34 +1098,35 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>800</v>
+      </c>
+      <c r="E17" s="3">
         <v>600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>500</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1100</v>
       </c>
       <c r="H17" s="3">
         <v>1000</v>
       </c>
       <c r="I17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J17" s="3">
         <v>1100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>400</v>
-      </c>
-      <c r="K17" s="3">
-        <v>100</v>
       </c>
       <c r="L17" s="3">
         <v>100</v>
@@ -1116,8 +1143,11 @@
       <c r="P17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1125,25 +1155,25 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-500</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-1100</v>
       </c>
       <c r="H18" s="3">
         <v>-1000</v>
       </c>
       <c r="I18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="J18" s="3">
         <v>-1100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-400</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-100</v>
       </c>
       <c r="L18" s="3">
         <v>-100</v>
@@ -1160,8 +1190,11 @@
       <c r="P18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1211,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1222,8 +1256,11 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1231,19 +1268,19 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-500</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-1100</v>
       </c>
       <c r="H21" s="3">
         <v>-1000</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
+      <c r="I21" s="3">
+        <v>-1000</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>4</v>
@@ -1266,8 +1303,11 @@
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,34 +1350,37 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-500</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-1100</v>
       </c>
       <c r="H23" s="3">
         <v>-1000</v>
       </c>
       <c r="I23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="J23" s="3">
         <v>-1100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-400</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-100</v>
       </c>
       <c r="L23" s="3">
         <v>-100</v>
@@ -1346,16 +1389,19 @@
         <v>-100</v>
       </c>
       <c r="N23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1444,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,34 +1491,37 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-500</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-1100</v>
       </c>
       <c r="H26" s="3">
         <v>-1000</v>
       </c>
       <c r="I26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="J26" s="3">
         <v>-1100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-400</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-100</v>
       </c>
       <c r="L26" s="3">
         <v>-100</v>
@@ -1478,42 +1530,45 @@
         <v>-100</v>
       </c>
       <c r="N26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-500</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-1100</v>
       </c>
       <c r="H27" s="3">
         <v>-1000</v>
       </c>
       <c r="I27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="J27" s="3">
         <v>-1100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-400</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-100</v>
       </c>
       <c r="L27" s="3">
         <v>-100</v>
@@ -1522,16 +1577,19 @@
         <v>-100</v>
       </c>
       <c r="N27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1773,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1750,34 +1820,37 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-500</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-1100</v>
       </c>
       <c r="H33" s="3">
         <v>-1000</v>
       </c>
       <c r="I33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="J33" s="3">
         <v>-1100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-400</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-100</v>
       </c>
       <c r="L33" s="3">
         <v>-100</v>
@@ -1786,16 +1859,19 @@
         <v>-100</v>
       </c>
       <c r="N33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,34 +1914,37 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-500</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-1100</v>
       </c>
       <c r="H35" s="3">
         <v>-1000</v>
       </c>
       <c r="I35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="J35" s="3">
         <v>-1100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-400</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-100</v>
       </c>
       <c r="L35" s="3">
         <v>-100</v>
@@ -1874,65 +1953,71 @@
         <v>-100</v>
       </c>
       <c r="N35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,75 +2053,79 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2900</v>
+        <v>1900</v>
       </c>
       <c r="E41" s="3">
-        <v>4200</v>
+        <v>2800</v>
       </c>
       <c r="F41" s="3">
+        <v>4000</v>
+      </c>
+      <c r="G41" s="3">
         <v>300</v>
       </c>
-      <c r="G41" s="3">
-        <v>1200</v>
-      </c>
       <c r="H41" s="3">
-        <v>2200</v>
+        <v>1100</v>
       </c>
       <c r="I41" s="3">
-        <v>3900</v>
+        <v>2100</v>
       </c>
       <c r="J41" s="3">
+        <v>3700</v>
+      </c>
+      <c r="K41" s="3">
         <v>100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>400</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N41" s="3">
         <v>100</v>
       </c>
       <c r="O41" s="3">
+        <v>100</v>
+      </c>
+      <c r="P41" s="3">
         <v>200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -2055,8 +2145,11 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2079,13 +2172,13 @@
         <v>0</v>
       </c>
       <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
         <v>100</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
       <c r="L43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M43" s="3">
         <v>100</v>
@@ -2099,8 +2192,11 @@
       <c r="P43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,35 +2239,38 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>100</v>
+      </c>
+      <c r="E45" s="3">
         <v>400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>200</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
       <c r="L45" s="3">
         <v>0</v>
       </c>
@@ -2187,52 +2286,58 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3400</v>
+        <v>2200</v>
       </c>
       <c r="E46" s="3">
-        <v>4500</v>
+        <v>3300</v>
       </c>
       <c r="F46" s="3">
+        <v>4400</v>
+      </c>
+      <c r="G46" s="3">
         <v>800</v>
       </c>
-      <c r="G46" s="3">
-        <v>1800</v>
-      </c>
       <c r="H46" s="3">
-        <v>2800</v>
+        <v>1700</v>
       </c>
       <c r="I46" s="3">
-        <v>4300</v>
+        <v>2700</v>
       </c>
       <c r="J46" s="3">
+        <v>4100</v>
+      </c>
+      <c r="K46" s="3">
         <v>500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>400</v>
-      </c>
-      <c r="L46" s="3">
-        <v>100</v>
       </c>
       <c r="M46" s="3">
         <v>100</v>
       </c>
       <c r="N46" s="3">
+        <v>100</v>
+      </c>
+      <c r="O46" s="3">
         <v>200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,37 +2380,40 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>11600</v>
+        <v>11300</v>
       </c>
       <c r="E48" s="3">
-        <v>11000</v>
+        <v>11300</v>
       </c>
       <c r="F48" s="3">
-        <v>10500</v>
+        <v>10700</v>
       </c>
       <c r="G48" s="3">
-        <v>9800</v>
+        <v>10200</v>
       </c>
       <c r="H48" s="3">
-        <v>9700</v>
+        <v>9600</v>
       </c>
       <c r="I48" s="3">
-        <v>9100</v>
+        <v>9400</v>
       </c>
       <c r="J48" s="3">
-        <v>1000</v>
+        <v>8800</v>
       </c>
       <c r="K48" s="3">
         <v>1000</v>
       </c>
       <c r="L48" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="M48" s="3">
         <v>1100</v>
@@ -2319,8 +2427,11 @@
       <c r="P48" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2474,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,16 +2568,19 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="E52" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="F52" s="3">
         <v>700</v>
@@ -2469,13 +2589,13 @@
         <v>700</v>
       </c>
       <c r="H52" s="3">
+        <v>700</v>
+      </c>
+      <c r="I52" s="3">
         <v>900</v>
       </c>
-      <c r="I52" s="3">
-        <v>800</v>
-      </c>
       <c r="J52" s="3">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="K52" s="3">
         <v>100</v>
@@ -2484,7 +2604,7 @@
         <v>100</v>
       </c>
       <c r="M52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
@@ -2492,11 +2612,14 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2662,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>15300</v>
+      </c>
+      <c r="F54" s="3">
         <v>15800</v>
       </c>
-      <c r="E54" s="3">
-        <v>16300</v>
-      </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
+        <v>11700</v>
+      </c>
+      <c r="H54" s="3">
         <v>12000</v>
       </c>
-      <c r="G54" s="3">
-        <v>12400</v>
-      </c>
-      <c r="H54" s="3">
-        <v>13400</v>
-      </c>
       <c r="I54" s="3">
-        <v>14100</v>
+        <v>13000</v>
       </c>
       <c r="J54" s="3">
-        <v>1500</v>
+        <v>13700</v>
       </c>
       <c r="K54" s="3">
         <v>1500</v>
       </c>
       <c r="L54" s="3">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="M54" s="3">
         <v>1200</v>
       </c>
       <c r="N54" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O54" s="3">
         <v>1300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,34 +2749,35 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E57" s="3">
         <v>300</v>
       </c>
       <c r="F57" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="G57" s="3">
         <v>100</v>
       </c>
       <c r="H57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I57" s="3">
         <v>200</v>
       </c>
       <c r="J57" s="3">
+        <v>200</v>
+      </c>
+      <c r="K57" s="3">
         <v>300</v>
-      </c>
-      <c r="K57" s="3">
-        <v>100</v>
       </c>
       <c r="L57" s="3">
         <v>100</v>
@@ -2663,8 +2794,11 @@
       <c r="P57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2687,7 +2821,7 @@
         <v>0</v>
       </c>
       <c r="J58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K58" s="3">
         <v>100</v>
@@ -2707,8 +2841,11 @@
       <c r="P58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2751,34 +2888,37 @@
       <c r="P59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E60" s="3">
         <v>300</v>
       </c>
       <c r="F60" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="G60" s="3">
         <v>100</v>
       </c>
       <c r="H60" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I60" s="3">
         <v>200</v>
       </c>
       <c r="J60" s="3">
+        <v>200</v>
+      </c>
+      <c r="K60" s="3">
         <v>400</v>
-      </c>
-      <c r="K60" s="3">
-        <v>200</v>
       </c>
       <c r="L60" s="3">
         <v>200</v>
@@ -2795,8 +2935,11 @@
       <c r="P60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,8 +2982,11 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2883,8 +3029,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,34 +3170,37 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E66" s="3">
         <v>300</v>
       </c>
       <c r="F66" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="G66" s="3">
         <v>100</v>
       </c>
       <c r="H66" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I66" s="3">
         <v>200</v>
       </c>
       <c r="J66" s="3">
+        <v>200</v>
+      </c>
+      <c r="K66" s="3">
         <v>400</v>
-      </c>
-      <c r="K66" s="3">
-        <v>200</v>
       </c>
       <c r="L66" s="3">
         <v>200</v>
@@ -3059,8 +3217,11 @@
       <c r="P66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3424,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-57600</v>
+        <v>-56800</v>
       </c>
       <c r="E72" s="3">
-        <v>-57200</v>
+        <v>-55900</v>
       </c>
       <c r="F72" s="3">
-        <v>-56600</v>
+        <v>-55500</v>
       </c>
       <c r="G72" s="3">
-        <v>-56200</v>
+        <v>-54900</v>
       </c>
       <c r="H72" s="3">
-        <v>-55400</v>
+        <v>-54600</v>
       </c>
       <c r="I72" s="3">
-        <v>-54600</v>
+        <v>-53700</v>
       </c>
       <c r="J72" s="3">
+        <v>-53000</v>
+      </c>
+      <c r="K72" s="3">
         <v>-54400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-53700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-54900</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-54400</v>
       </c>
       <c r="N72" s="3">
         <v>-54400</v>
       </c>
       <c r="O72" s="3">
+        <v>-54400</v>
+      </c>
+      <c r="P72" s="3">
         <v>-57800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-57700</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3612,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>15500</v>
+        <v>14100</v>
       </c>
       <c r="E76" s="3">
-        <v>15900</v>
+        <v>15000</v>
       </c>
       <c r="F76" s="3">
+        <v>15400</v>
+      </c>
+      <c r="G76" s="3">
+        <v>11600</v>
+      </c>
+      <c r="H76" s="3">
         <v>11900</v>
       </c>
-      <c r="G76" s="3">
-        <v>12300</v>
-      </c>
-      <c r="H76" s="3">
-        <v>13100</v>
-      </c>
       <c r="I76" s="3">
-        <v>13900</v>
+        <v>12800</v>
       </c>
       <c r="J76" s="3">
+        <v>13400</v>
+      </c>
+      <c r="K76" s="3">
         <v>1100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1000</v>
-      </c>
-      <c r="M76" s="3">
-        <v>1100</v>
       </c>
       <c r="N76" s="3">
         <v>1100</v>
       </c>
       <c r="O76" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P76" s="3">
         <v>1200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,83 +3706,89 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-500</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-1100</v>
       </c>
       <c r="H81" s="3">
         <v>-1000</v>
       </c>
       <c r="I81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="J81" s="3">
         <v>-1100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-400</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-100</v>
       </c>
       <c r="L81" s="3">
         <v>-100</v>
@@ -3602,16 +3797,19 @@
         <v>-100</v>
       </c>
       <c r="N81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3826,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3648,8 +3847,8 @@
       <c r="H83" s="3">
         <v>0</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>4</v>
+      <c r="I83" s="3">
+        <v>0</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>4</v>
@@ -3666,14 +3865,17 @@
       <c r="N83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
+      <c r="O83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,34 +4106,37 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-600</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-200</v>
       </c>
       <c r="F89" s="3">
         <v>-200</v>
       </c>
       <c r="G89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H89" s="3">
         <v>-500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-400</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-100</v>
       </c>
       <c r="L89" s="3">
         <v>-100</v>
@@ -3928,16 +4145,19 @@
         <v>-100</v>
       </c>
       <c r="N89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4174,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3963,19 +4184,19 @@
         <v>-700</v>
       </c>
       <c r="E91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F91" s="3">
         <v>-500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-700</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>4</v>
@@ -3992,14 +4213,17 @@
       <c r="N91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4313,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G94" s="3">
         <v>-700</v>
       </c>
-      <c r="E94" s="3">
-        <v>-500</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-700</v>
-      </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-900</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>4</v>
+      <c r="M94" s="3">
+        <v>0</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
+      <c r="O94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,8 +4567,11 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4333,29 +4579,29 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>4600</v>
+        <v>0</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>4400</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>-100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
-        <v>9800</v>
-      </c>
       <c r="J100" s="3">
-        <v>0</v>
+        <v>9500</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>400</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>4</v>
       </c>
@@ -4368,8 +4614,11 @@
       <c r="P100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,48 +4661,54 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1200</v>
       </c>
-      <c r="E102" s="3">
-        <v>3900</v>
-      </c>
       <c r="F102" s="3">
+        <v>3800</v>
+      </c>
+      <c r="G102" s="3">
         <v>-900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1600</v>
       </c>
-      <c r="I102" s="3">
-        <v>3800</v>
-      </c>
       <c r="J102" s="3">
+        <v>3700</v>
+      </c>
+      <c r="K102" s="3">
         <v>-300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>400</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GBRCF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GBRCF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="92">
   <si>
     <t>GBRCF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,78 +665,85 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -782,8 +789,14 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -829,8 +842,14 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -876,8 +895,14 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,8 +920,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -942,8 +969,14 @@
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,35 +1022,41 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3">
         <v>200</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3">
         <v>300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>200</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1030,14 +1069,20 @@
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1062,11 +1107,11 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>4</v>
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>4</v>
@@ -1083,8 +1128,14 @@
       <c r="Q15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,40 +1150,42 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="E17" s="3">
+        <v>300</v>
+      </c>
+      <c r="F17" s="3">
+        <v>700</v>
+      </c>
+      <c r="G17" s="3">
         <v>600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
+        <v>900</v>
+      </c>
+      <c r="I17" s="3">
+        <v>500</v>
+      </c>
+      <c r="J17" s="3">
         <v>1000</v>
       </c>
-      <c r="G17" s="3">
-        <v>500</v>
-      </c>
-      <c r="H17" s="3">
+      <c r="K17" s="3">
         <v>1000</v>
       </c>
-      <c r="I17" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>400</v>
-      </c>
-      <c r="L17" s="3">
-        <v>100</v>
-      </c>
-      <c r="M17" s="3">
-        <v>100</v>
       </c>
       <c r="N17" s="3">
         <v>100</v>
@@ -1146,8 +1199,14 @@
       <c r="Q17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3">
+        <v>100</v>
+      </c>
+      <c r="S17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1155,31 +1214,31 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G18" s="3">
         <v>-600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J18" s="3">
         <v>-1000</v>
       </c>
-      <c r="G18" s="3">
-        <v>-500</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="K18" s="3">
         <v>-1000</v>
       </c>
-      <c r="I18" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-1100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-400</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-100</v>
       </c>
       <c r="N18" s="3">
         <v>-100</v>
@@ -1193,8 +1252,14 @@
       <c r="Q18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,8 +1277,10 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1224,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -1259,8 +1326,14 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1268,7 +1341,7 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-600</v>
+        <v>-300</v>
       </c>
       <c r="F21" s="3">
         <v>-1000</v>
@@ -1277,17 +1350,17 @@
         <v>-500</v>
       </c>
       <c r="H21" s="3">
+        <v>-900</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J21" s="3">
         <v>-1000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-1000</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1306,8 +1379,14 @@
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1353,55 +1432,67 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1000</v>
+        <v>-200</v>
       </c>
       <c r="E23" s="3">
-        <v>-600</v>
+        <v>-300</v>
       </c>
       <c r="F23" s="3">
         <v>-1000</v>
       </c>
       <c r="G23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="I23" s="3">
         <v>-500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-1000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-1000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-1100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-400</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-100</v>
       </c>
       <c r="N23" s="3">
         <v>-100</v>
       </c>
       <c r="O23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P23" s="3">
         <v>-100</v>
       </c>
       <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1447,8 +1538,14 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1591,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1000</v>
+        <v>-200</v>
       </c>
       <c r="E26" s="3">
-        <v>-600</v>
+        <v>-300</v>
       </c>
       <c r="F26" s="3">
         <v>-1000</v>
       </c>
       <c r="G26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="I26" s="3">
         <v>-500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-1000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-1000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-1100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-400</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-100</v>
       </c>
       <c r="N26" s="3">
         <v>-100</v>
       </c>
       <c r="O26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P26" s="3">
         <v>-100</v>
       </c>
       <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1000</v>
+        <v>-200</v>
       </c>
       <c r="E27" s="3">
-        <v>-600</v>
+        <v>-300</v>
       </c>
       <c r="F27" s="3">
         <v>-1000</v>
       </c>
       <c r="G27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="I27" s="3">
         <v>-500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-1000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-1000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-1100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-400</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-100</v>
       </c>
       <c r="N27" s="3">
         <v>-100</v>
       </c>
       <c r="O27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P27" s="3">
         <v>-100</v>
       </c>
       <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1750,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1803,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,8 +1909,14 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1788,7 +1927,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -1823,55 +1962,67 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1000</v>
+        <v>-200</v>
       </c>
       <c r="E33" s="3">
-        <v>-600</v>
+        <v>-300</v>
       </c>
       <c r="F33" s="3">
         <v>-1000</v>
       </c>
       <c r="G33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="I33" s="3">
         <v>-500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-1000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-1000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-1100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-400</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-100</v>
       </c>
       <c r="N33" s="3">
         <v>-100</v>
       </c>
       <c r="O33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P33" s="3">
         <v>-100</v>
       </c>
       <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +2068,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1000</v>
+        <v>-200</v>
       </c>
       <c r="E35" s="3">
-        <v>-600</v>
+        <v>-300</v>
       </c>
       <c r="F35" s="3">
         <v>-1000</v>
       </c>
       <c r="G35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="I35" s="3">
         <v>-500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-1000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-1000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-1100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-400</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-100</v>
       </c>
       <c r="N35" s="3">
         <v>-100</v>
       </c>
       <c r="O35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P35" s="3">
         <v>-100</v>
       </c>
       <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,66 +2225,74 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1900</v>
+        <v>1000</v>
       </c>
       <c r="E41" s="3">
-        <v>2800</v>
+        <v>1300</v>
       </c>
       <c r="F41" s="3">
-        <v>4000</v>
+        <v>1800</v>
       </c>
       <c r="G41" s="3">
+        <v>2700</v>
+      </c>
+      <c r="H41" s="3">
+        <v>3900</v>
+      </c>
+      <c r="I41" s="3">
         <v>300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>2100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>3700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>400</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
         <v>100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>300</v>
+      </c>
+      <c r="E42" s="3">
         <v>200</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>4</v>
+      <c r="F42" s="3">
+        <v>200</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>4</v>
@@ -2127,11 +2306,11 @@
       <c r="J42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
@@ -2148,8 +2327,14 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2175,7 +2360,7 @@
         <v>0</v>
       </c>
       <c r="K43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
@@ -2184,7 +2369,7 @@
         <v>100</v>
       </c>
       <c r="N43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O43" s="3">
         <v>100</v>
@@ -2195,8 +2380,14 @@
       <c r="Q43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>100</v>
+      </c>
+      <c r="S43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,41 +2433,47 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
         <v>100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
+        <v>100</v>
+      </c>
+      <c r="G45" s="3">
         <v>400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
+        <v>400</v>
+      </c>
+      <c r="J45" s="3">
+        <v>600</v>
+      </c>
+      <c r="K45" s="3">
         <v>500</v>
       </c>
-      <c r="H45" s="3">
-        <v>600</v>
-      </c>
-      <c r="I45" s="3">
-        <v>500</v>
-      </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>200</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
       <c r="N45" s="3">
         <v>0</v>
       </c>
@@ -2289,55 +2486,67 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2200</v>
+        <v>1300</v>
       </c>
       <c r="E46" s="3">
-        <v>3300</v>
+        <v>1600</v>
       </c>
       <c r="F46" s="3">
-        <v>4400</v>
+        <v>2100</v>
       </c>
       <c r="G46" s="3">
-        <v>800</v>
+        <v>3200</v>
       </c>
       <c r="H46" s="3">
+        <v>4200</v>
+      </c>
+      <c r="I46" s="3">
+        <v>700</v>
+      </c>
+      <c r="J46" s="3">
         <v>1700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>2700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>4100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,43 +2592,49 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>11300</v>
+        <v>11400</v>
       </c>
       <c r="E48" s="3">
         <v>11300</v>
       </c>
       <c r="F48" s="3">
-        <v>10700</v>
+        <v>10900</v>
       </c>
       <c r="G48" s="3">
-        <v>10200</v>
+        <v>10900</v>
       </c>
       <c r="H48" s="3">
-        <v>9600</v>
+        <v>10300</v>
       </c>
       <c r="I48" s="3">
+        <v>9900</v>
+      </c>
+      <c r="J48" s="3">
+        <v>9200</v>
+      </c>
+      <c r="K48" s="3">
         <v>9400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>8800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1000</v>
-      </c>
-      <c r="M48" s="3">
-        <v>1100</v>
-      </c>
-      <c r="N48" s="3">
-        <v>1100</v>
       </c>
       <c r="O48" s="3">
         <v>1100</v>
@@ -2430,8 +2645,14 @@
       <c r="Q48" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>1100</v>
+      </c>
+      <c r="S48" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2477,8 +2698,14 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,19 +2804,25 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>700</v>
+      </c>
+      <c r="E52" s="3">
         <v>600</v>
       </c>
-      <c r="E52" s="3">
-        <v>700</v>
-      </c>
       <c r="F52" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="G52" s="3">
         <v>700</v>
@@ -2592,34 +2831,40 @@
         <v>700</v>
       </c>
       <c r="I52" s="3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="J52" s="3">
         <v>700</v>
       </c>
       <c r="K52" s="3">
-        <v>100</v>
+        <v>900</v>
       </c>
       <c r="L52" s="3">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="M52" s="3">
         <v>100</v>
       </c>
       <c r="N52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2910,67 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>14200</v>
+        <v>13300</v>
       </c>
       <c r="E54" s="3">
-        <v>15300</v>
+        <v>13500</v>
       </c>
       <c r="F54" s="3">
-        <v>15800</v>
+        <v>13600</v>
       </c>
       <c r="G54" s="3">
-        <v>11700</v>
+        <v>14700</v>
       </c>
       <c r="H54" s="3">
-        <v>12000</v>
+        <v>15200</v>
       </c>
       <c r="I54" s="3">
+        <v>11300</v>
+      </c>
+      <c r="J54" s="3">
+        <v>11600</v>
+      </c>
+      <c r="K54" s="3">
         <v>13000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>13700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,40 +3009,42 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3">
+        <v>0</v>
+      </c>
+      <c r="F57" s="3">
+        <v>0</v>
+      </c>
+      <c r="G57" s="3">
         <v>300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>100</v>
       </c>
-      <c r="H57" s="3">
-        <v>100</v>
-      </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
+        <v>0</v>
+      </c>
+      <c r="K57" s="3">
         <v>200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>300</v>
-      </c>
-      <c r="L57" s="3">
-        <v>100</v>
-      </c>
-      <c r="M57" s="3">
-        <v>100</v>
       </c>
       <c r="N57" s="3">
         <v>100</v>
@@ -2797,16 +3058,22 @@
       <c r="Q57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>100</v>
+      </c>
+      <c r="S57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -2824,10 +3091,10 @@
         <v>0</v>
       </c>
       <c r="K58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M58" s="3">
         <v>100</v>
@@ -2844,8 +3111,14 @@
       <c r="Q58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>100</v>
+      </c>
+      <c r="S58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2891,8 +3164,14 @@
       <c r="Q59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2900,31 +3179,31 @@
         <v>100</v>
       </c>
       <c r="E60" s="3">
+        <v>0</v>
+      </c>
+      <c r="F60" s="3">
+        <v>100</v>
+      </c>
+      <c r="G60" s="3">
         <v>300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>200</v>
-      </c>
-      <c r="J60" s="3">
-        <v>200</v>
-      </c>
-      <c r="K60" s="3">
-        <v>400</v>
       </c>
       <c r="L60" s="3">
         <v>200</v>
       </c>
       <c r="M60" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N60" s="3">
         <v>200</v>
@@ -2938,8 +3217,14 @@
       <c r="Q60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>200</v>
+      </c>
+      <c r="S60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2985,8 +3270,14 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3032,8 +3323,14 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,8 +3482,14 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3182,31 +3497,31 @@
         <v>100</v>
       </c>
       <c r="E66" s="3">
+        <v>0</v>
+      </c>
+      <c r="F66" s="3">
+        <v>100</v>
+      </c>
+      <c r="G66" s="3">
         <v>300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>200</v>
-      </c>
-      <c r="J66" s="3">
-        <v>200</v>
-      </c>
-      <c r="K66" s="3">
-        <v>400</v>
       </c>
       <c r="L66" s="3">
         <v>200</v>
       </c>
       <c r="M66" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N66" s="3">
         <v>200</v>
@@ -3220,8 +3535,14 @@
       <c r="Q66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3">
+        <v>200</v>
+      </c>
+      <c r="S66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3662,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3715,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3768,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-56800</v>
+        <v>-55000</v>
       </c>
       <c r="E72" s="3">
-        <v>-55900</v>
+        <v>-54800</v>
       </c>
       <c r="F72" s="3">
-        <v>-55500</v>
+        <v>-54700</v>
       </c>
       <c r="G72" s="3">
+        <v>-53900</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-53400</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-52900</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-52600</v>
+      </c>
+      <c r="K72" s="3">
+        <v>-53700</v>
+      </c>
+      <c r="L72" s="3">
+        <v>-53000</v>
+      </c>
+      <c r="M72" s="3">
+        <v>-54400</v>
+      </c>
+      <c r="N72" s="3">
+        <v>-53700</v>
+      </c>
+      <c r="O72" s="3">
         <v>-54900</v>
       </c>
-      <c r="H72" s="3">
-        <v>-54600</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-53700</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-53000</v>
-      </c>
-      <c r="K72" s="3">
+      <c r="P72" s="3">
         <v>-54400</v>
       </c>
-      <c r="L72" s="3">
-        <v>-53700</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-54900</v>
-      </c>
-      <c r="N72" s="3">
+      <c r="Q72" s="3">
         <v>-54400</v>
       </c>
-      <c r="O72" s="3">
-        <v>-54400</v>
-      </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-57800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-57700</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3980,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>14100</v>
+        <v>13200</v>
       </c>
       <c r="E76" s="3">
-        <v>15000</v>
+        <v>13400</v>
       </c>
       <c r="F76" s="3">
-        <v>15400</v>
+        <v>13600</v>
       </c>
       <c r="G76" s="3">
-        <v>11600</v>
+        <v>14500</v>
       </c>
       <c r="H76" s="3">
-        <v>11900</v>
+        <v>14900</v>
       </c>
       <c r="I76" s="3">
+        <v>11200</v>
+      </c>
+      <c r="J76" s="3">
+        <v>11500</v>
+      </c>
+      <c r="K76" s="3">
         <v>12800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>13400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>1200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +4086,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1000</v>
+        <v>-200</v>
       </c>
       <c r="E81" s="3">
-        <v>-600</v>
+        <v>-300</v>
       </c>
       <c r="F81" s="3">
         <v>-1000</v>
       </c>
       <c r="G81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="I81" s="3">
         <v>-500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-1000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-1000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-1100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-400</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-100</v>
       </c>
       <c r="N81" s="3">
         <v>-100</v>
       </c>
       <c r="O81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P81" s="3">
         <v>-100</v>
       </c>
       <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4222,10 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3850,11 +4247,11 @@
       <c r="I83" s="3">
         <v>0</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>4</v>
+      <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3">
+        <v>0</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>4</v>
@@ -3868,14 +4265,20 @@
       <c r="O83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4536,67 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-400</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-100</v>
       </c>
       <c r="N89" s="3">
         <v>-100</v>
       </c>
       <c r="O89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P89" s="3">
         <v>-100</v>
       </c>
       <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,34 +4614,36 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I91" s="3">
         <v>-700</v>
       </c>
-      <c r="E91" s="3">
-        <v>-600</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-500</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-700</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>4</v>
@@ -4216,14 +4657,20 @@
       <c r="O91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4769,67 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F94" s="3">
         <v>-600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-900</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4847,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4896,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,44 +5055,50 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>0</v>
-      </c>
-      <c r="E100" s="3">
-        <v>0</v>
+      <c r="D100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F100" s="3">
-        <v>4400</v>
+        <v>0</v>
       </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>4300</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>-100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>9500</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>400</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>4</v>
       </c>
@@ -4617,8 +5108,14 @@
       <c r="Q100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,43 +5161,49 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G102" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="H102" s="3">
+        <v>3600</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-800</v>
+      </c>
+      <c r="J102" s="3">
         <v>-1000</v>
       </c>
-      <c r="E102" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="F102" s="3">
-        <v>3800</v>
-      </c>
-      <c r="G102" s="3">
-        <v>-900</v>
-      </c>
-      <c r="H102" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-1600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>3700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>400</v>
-      </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
-      <c r="N102" s="3">
-        <v>-100</v>
       </c>
       <c r="O102" s="3">
         <v>0</v>
@@ -4709,6 +5212,12 @@
         <v>-100</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GBRCF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GBRCF_QTR_FIN.xlsx
@@ -1158,7 +1158,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E17" s="3">
         <v>300</v>
@@ -1170,7 +1170,7 @@
         <v>600</v>
       </c>
       <c r="H17" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="I17" s="3">
         <v>500</v>
@@ -1223,7 +1223,7 @@
         <v>-600</v>
       </c>
       <c r="H18" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="I18" s="3">
         <v>-500</v>
@@ -1288,7 +1288,7 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
         <v>-300</v>
@@ -1347,10 +1347,10 @@
         <v>-1000</v>
       </c>
       <c r="G21" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="H21" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="I21" s="3">
         <v>-500</v>
@@ -1456,7 +1456,7 @@
         <v>-600</v>
       </c>
       <c r="H23" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="I23" s="3">
         <v>-500</v>
@@ -1615,7 +1615,7 @@
         <v>-600</v>
       </c>
       <c r="H26" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="I26" s="3">
         <v>-500</v>
@@ -1668,7 +1668,7 @@
         <v>-600</v>
       </c>
       <c r="H27" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="I27" s="3">
         <v>-500</v>
@@ -1924,7 +1924,7 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
         <v>300</v>
@@ -1986,7 +1986,7 @@
         <v>-600</v>
       </c>
       <c r="H33" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="I33" s="3">
         <v>-500</v>
@@ -2092,7 +2092,7 @@
         <v>-600</v>
       </c>
       <c r="H35" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="I35" s="3">
         <v>-500</v>
@@ -2242,10 +2242,10 @@
         <v>1800</v>
       </c>
       <c r="G41" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="H41" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="I41" s="3">
         <v>300</v>
@@ -2289,7 +2289,7 @@
         <v>300</v>
       </c>
       <c r="E42" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F42" s="3">
         <v>200</v>
@@ -2460,7 +2460,7 @@
         <v>300</v>
       </c>
       <c r="I45" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="J45" s="3">
         <v>600</v>
@@ -2510,7 +2510,7 @@
         <v>3200</v>
       </c>
       <c r="H46" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="I46" s="3">
         <v>700</v>
@@ -2604,25 +2604,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>11400</v>
+        <v>11600</v>
       </c>
       <c r="E48" s="3">
-        <v>11300</v>
+        <v>11500</v>
       </c>
       <c r="F48" s="3">
-        <v>10900</v>
+        <v>11200</v>
       </c>
       <c r="G48" s="3">
-        <v>10900</v>
+        <v>11200</v>
       </c>
       <c r="H48" s="3">
-        <v>10300</v>
+        <v>10500</v>
       </c>
       <c r="I48" s="3">
-        <v>9900</v>
+        <v>10100</v>
       </c>
       <c r="J48" s="3">
-        <v>9200</v>
+        <v>9400</v>
       </c>
       <c r="K48" s="3">
         <v>9400</v>
@@ -2922,25 +2922,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>13300</v>
+        <v>13600</v>
       </c>
       <c r="E54" s="3">
-        <v>13500</v>
+        <v>13800</v>
       </c>
       <c r="F54" s="3">
-        <v>13600</v>
+        <v>14000</v>
       </c>
       <c r="G54" s="3">
-        <v>14700</v>
+        <v>15100</v>
       </c>
       <c r="H54" s="3">
-        <v>15200</v>
+        <v>15600</v>
       </c>
       <c r="I54" s="3">
-        <v>11300</v>
+        <v>11500</v>
       </c>
       <c r="J54" s="3">
-        <v>11600</v>
+        <v>11900</v>
       </c>
       <c r="K54" s="3">
         <v>13000</v>
@@ -3035,7 +3035,7 @@
         <v>100</v>
       </c>
       <c r="J57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K57" s="3">
         <v>200</v>
@@ -3780,25 +3780,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-55000</v>
+        <v>-56300</v>
       </c>
       <c r="E72" s="3">
-        <v>-54800</v>
+        <v>-56200</v>
       </c>
       <c r="F72" s="3">
+        <v>-56000</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-55200</v>
+      </c>
+      <c r="H72" s="3">
         <v>-54700</v>
       </c>
-      <c r="G72" s="3">
-        <v>-53900</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-53400</v>
-      </c>
       <c r="I72" s="3">
-        <v>-52900</v>
+        <v>-54200</v>
       </c>
       <c r="J72" s="3">
-        <v>-52600</v>
+        <v>-53800</v>
       </c>
       <c r="K72" s="3">
         <v>-53700</v>
@@ -3992,25 +3992,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>13200</v>
+        <v>13600</v>
       </c>
       <c r="E76" s="3">
-        <v>13400</v>
+        <v>13800</v>
       </c>
       <c r="F76" s="3">
-        <v>13600</v>
+        <v>13900</v>
       </c>
       <c r="G76" s="3">
-        <v>14500</v>
+        <v>14800</v>
       </c>
       <c r="H76" s="3">
-        <v>14900</v>
+        <v>15200</v>
       </c>
       <c r="I76" s="3">
-        <v>11200</v>
+        <v>11400</v>
       </c>
       <c r="J76" s="3">
-        <v>11500</v>
+        <v>11800</v>
       </c>
       <c r="K76" s="3">
         <v>12800</v>
@@ -4168,7 +4168,7 @@
         <v>-600</v>
       </c>
       <c r="H81" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="I81" s="3">
         <v>-500</v>
@@ -4625,22 +4625,22 @@
         <v>-100</v>
       </c>
       <c r="E91" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="F91" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="H91" s="3">
         <v>-600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
+        <v>-900</v>
+      </c>
+      <c r="J91" s="3">
         <v>-600</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-400</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-700</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -4784,7 +4784,7 @@
         <v>-100</v>
       </c>
       <c r="E94" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="F94" s="3">
         <v>-600</v>
@@ -5079,7 +5079,7 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="I100" s="3">
         <v>0</v>
@@ -5176,7 +5176,7 @@
         <v>-300</v>
       </c>
       <c r="E102" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="F102" s="3">
         <v>-900</v>
@@ -5185,7 +5185,7 @@
         <v>-1200</v>
       </c>
       <c r="H102" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="I102" s="3">
         <v>-800</v>

--- a/AAII_Financials/Quarterly/GBRCF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GBRCF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="92">
   <si>
     <t>GBRCF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,89 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -795,8 +799,11 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -848,8 +855,11 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1039,27 +1059,27 @@
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3">
         <v>200</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="3">
         <v>300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>200</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1075,14 +1095,17 @@
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1113,8 +1136,8 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>4</v>
+      <c r="M15" s="3">
+        <v>0</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>4</v>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,43 +1178,44 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E17" s="3">
         <v>300</v>
       </c>
       <c r="F17" s="3">
+        <v>300</v>
+      </c>
+      <c r="G17" s="3">
         <v>700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>500</v>
-      </c>
-      <c r="J17" s="3">
-        <v>1000</v>
       </c>
       <c r="K17" s="3">
         <v>1000</v>
       </c>
       <c r="L17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M17" s="3">
         <v>1100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>400</v>
-      </c>
-      <c r="N17" s="3">
-        <v>100</v>
       </c>
       <c r="O17" s="3">
         <v>100</v>
@@ -1205,8 +1232,11 @@
       <c r="S17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1217,31 +1247,31 @@
         <v>-300</v>
       </c>
       <c r="F18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G18" s="3">
         <v>-700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-500</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-1000</v>
       </c>
       <c r="K18" s="3">
         <v>-1000</v>
       </c>
       <c r="L18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="M18" s="3">
         <v>-1100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-400</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-100</v>
       </c>
       <c r="O18" s="3">
         <v>-100</v>
@@ -1258,8 +1288,11 @@
       <c r="S18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1288,14 +1322,14 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-300</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1332,8 +1366,11 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1341,28 +1378,28 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-500</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-1000</v>
       </c>
       <c r="K21" s="3">
         <v>-1000</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
+      <c r="L21" s="3">
+        <v>-1000</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>4</v>
@@ -1385,8 +1422,11 @@
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,43 +1478,46 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-500</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-1000</v>
       </c>
       <c r="K23" s="3">
         <v>-1000</v>
       </c>
       <c r="L23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="M23" s="3">
         <v>-1100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-400</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-100</v>
       </c>
       <c r="O23" s="3">
         <v>-100</v>
@@ -1483,16 +1526,19 @@
         <v>-100</v>
       </c>
       <c r="Q23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,43 +1646,46 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-500</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-1000</v>
       </c>
       <c r="K26" s="3">
         <v>-1000</v>
       </c>
       <c r="L26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="M26" s="3">
         <v>-1100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-400</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-100</v>
       </c>
       <c r="O26" s="3">
         <v>-100</v>
@@ -1642,51 +1694,54 @@
         <v>-100</v>
       </c>
       <c r="Q26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-500</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-1000</v>
       </c>
       <c r="K27" s="3">
         <v>-1000</v>
       </c>
       <c r="L27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="M27" s="3">
         <v>-1100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-400</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-100</v>
       </c>
       <c r="O27" s="3">
         <v>-100</v>
@@ -1695,16 +1750,19 @@
         <v>-100</v>
       </c>
       <c r="Q27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1924,14 +1994,14 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>300</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -1968,43 +2038,46 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-500</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-1000</v>
       </c>
       <c r="K33" s="3">
         <v>-1000</v>
       </c>
       <c r="L33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="M33" s="3">
         <v>-1100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-400</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-100</v>
       </c>
       <c r="O33" s="3">
         <v>-100</v>
@@ -2013,16 +2086,19 @@
         <v>-100</v>
       </c>
       <c r="Q33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,43 +2150,46 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-500</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-1000</v>
       </c>
       <c r="K35" s="3">
         <v>-1000</v>
       </c>
       <c r="L35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="M35" s="3">
         <v>-1100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-400</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-100</v>
       </c>
       <c r="O35" s="3">
         <v>-100</v>
@@ -2119,74 +2198,80 @@
         <v>-100</v>
       </c>
       <c r="Q35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,76 +2313,80 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>800</v>
+      </c>
+      <c r="E41" s="3">
         <v>1000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>400</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
       <c r="P41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="3">
         <v>100</v>
       </c>
       <c r="R41" s="3">
+        <v>100</v>
+      </c>
+      <c r="S41" s="3">
         <v>200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E42" s="3">
         <v>300</v>
       </c>
       <c r="F42" s="3">
+        <v>300</v>
+      </c>
+      <c r="G42" s="3">
         <v>200</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2312,8 +2402,8 @@
       <c r="L42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
+      <c r="M42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N42" s="3">
         <v>0</v>
@@ -2333,8 +2423,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2366,13 +2459,13 @@
         <v>0</v>
       </c>
       <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
         <v>100</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
-      </c>
       <c r="O43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P43" s="3">
         <v>100</v>
@@ -2386,8 +2479,11 @@
       <c r="S43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,8 +2535,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2448,35 +2547,35 @@
         <v>0</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F45" s="3">
         <v>100</v>
       </c>
       <c r="G45" s="3">
+        <v>100</v>
+      </c>
+      <c r="H45" s="3">
         <v>400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>200</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
       <c r="O45" s="3">
         <v>0</v>
       </c>
@@ -2492,61 +2591,67 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>400</v>
-      </c>
-      <c r="O46" s="3">
-        <v>100</v>
       </c>
       <c r="P46" s="3">
         <v>100</v>
       </c>
       <c r="Q46" s="3">
+        <v>100</v>
+      </c>
+      <c r="R46" s="3">
         <v>200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,46 +2703,49 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E48" s="3">
         <v>11600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>11500</v>
-      </c>
-      <c r="F48" s="3">
-        <v>11200</v>
       </c>
       <c r="G48" s="3">
         <v>11200</v>
       </c>
       <c r="H48" s="3">
+        <v>11100</v>
+      </c>
+      <c r="I48" s="3">
         <v>10500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>10100</v>
-      </c>
-      <c r="J48" s="3">
-        <v>9400</v>
       </c>
       <c r="K48" s="3">
         <v>9400</v>
       </c>
       <c r="L48" s="3">
+        <v>9400</v>
+      </c>
+      <c r="M48" s="3">
         <v>8800</v>
-      </c>
-      <c r="M48" s="3">
-        <v>1000</v>
       </c>
       <c r="N48" s="3">
         <v>1000</v>
       </c>
       <c r="O48" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="P48" s="3">
         <v>1100</v>
@@ -2651,8 +2759,11 @@
       <c r="S48" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,22 +2927,25 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>500</v>
+      </c>
+      <c r="E52" s="3">
         <v>700</v>
-      </c>
-      <c r="E52" s="3">
-        <v>600</v>
       </c>
       <c r="F52" s="3">
         <v>600</v>
       </c>
       <c r="G52" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="H52" s="3">
         <v>700</v>
@@ -2837,13 +2957,13 @@
         <v>700</v>
       </c>
       <c r="K52" s="3">
+        <v>700</v>
+      </c>
+      <c r="L52" s="3">
         <v>900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>700</v>
-      </c>
-      <c r="M52" s="3">
-        <v>100</v>
       </c>
       <c r="N52" s="3">
         <v>100</v>
@@ -2852,7 +2972,7 @@
         <v>100</v>
       </c>
       <c r="P52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q52" s="3">
         <v>0</v>
@@ -2860,11 +2980,14 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E54" s="3">
         <v>13600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>13800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>14000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>15100</v>
       </c>
-      <c r="H54" s="3">
-        <v>15600</v>
-      </c>
       <c r="I54" s="3">
+        <v>15500</v>
+      </c>
+      <c r="J54" s="3">
         <v>11500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>11900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>13000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>13700</v>
-      </c>
-      <c r="M54" s="3">
-        <v>1500</v>
       </c>
       <c r="N54" s="3">
         <v>1500</v>
       </c>
       <c r="O54" s="3">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="P54" s="3">
         <v>1200</v>
       </c>
       <c r="Q54" s="3">
+        <v>1200</v>
+      </c>
+      <c r="R54" s="3">
         <v>1300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,43 +3141,44 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E57" s="3">
         <v>100</v>
       </c>
-      <c r="E57" s="3">
-        <v>0</v>
-      </c>
       <c r="F57" s="3">
         <v>0</v>
       </c>
       <c r="G57" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H57" s="3">
         <v>300</v>
       </c>
       <c r="I57" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="J57" s="3">
         <v>100</v>
       </c>
       <c r="K57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L57" s="3">
         <v>200</v>
       </c>
       <c r="M57" s="3">
+        <v>200</v>
+      </c>
+      <c r="N57" s="3">
         <v>300</v>
-      </c>
-      <c r="N57" s="3">
-        <v>100</v>
       </c>
       <c r="O57" s="3">
         <v>100</v>
@@ -3064,8 +3195,11 @@
       <c r="S57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3075,8 +3209,8 @@
       <c r="E58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -3097,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="M58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N58" s="3">
         <v>100</v>
@@ -3117,8 +3251,11 @@
       <c r="S58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3170,43 +3307,46 @@
       <c r="S59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E60" s="3">
         <v>100</v>
       </c>
-      <c r="E60" s="3">
-        <v>0</v>
-      </c>
       <c r="F60" s="3">
+        <v>0</v>
+      </c>
+      <c r="G60" s="3">
         <v>100</v>
-      </c>
-      <c r="G60" s="3">
-        <v>300</v>
       </c>
       <c r="H60" s="3">
         <v>300</v>
       </c>
       <c r="I60" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="J60" s="3">
         <v>100</v>
       </c>
       <c r="K60" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L60" s="3">
         <v>200</v>
       </c>
       <c r="M60" s="3">
+        <v>200</v>
+      </c>
+      <c r="N60" s="3">
         <v>400</v>
-      </c>
-      <c r="N60" s="3">
-        <v>200</v>
       </c>
       <c r="O60" s="3">
         <v>200</v>
@@ -3223,8 +3363,11 @@
       <c r="S60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,8 +3419,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,43 +3643,46 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E66" s="3">
         <v>100</v>
       </c>
-      <c r="E66" s="3">
-        <v>0</v>
-      </c>
       <c r="F66" s="3">
+        <v>0</v>
+      </c>
+      <c r="G66" s="3">
         <v>100</v>
-      </c>
-      <c r="G66" s="3">
-        <v>300</v>
       </c>
       <c r="H66" s="3">
         <v>300</v>
       </c>
       <c r="I66" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="J66" s="3">
         <v>100</v>
       </c>
       <c r="K66" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L66" s="3">
         <v>200</v>
       </c>
       <c r="M66" s="3">
+        <v>200</v>
+      </c>
+      <c r="N66" s="3">
         <v>400</v>
-      </c>
-      <c r="N66" s="3">
-        <v>200</v>
       </c>
       <c r="O66" s="3">
         <v>200</v>
@@ -3541,8 +3699,11 @@
       <c r="S66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-56600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-56300</v>
       </c>
-      <c r="E72" s="3">
-        <v>-56200</v>
-      </c>
       <c r="F72" s="3">
+        <v>-56100</v>
+      </c>
+      <c r="G72" s="3">
         <v>-56000</v>
       </c>
-      <c r="G72" s="3">
-        <v>-55200</v>
-      </c>
       <c r="H72" s="3">
+        <v>-55100</v>
+      </c>
+      <c r="I72" s="3">
         <v>-54700</v>
       </c>
-      <c r="I72" s="3">
-        <v>-54200</v>
-      </c>
       <c r="J72" s="3">
+        <v>-54100</v>
+      </c>
+      <c r="K72" s="3">
         <v>-53800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-53700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-53000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-54400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-53700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-54900</v>
-      </c>
-      <c r="P72" s="3">
-        <v>-54400</v>
       </c>
       <c r="Q72" s="3">
         <v>-54400</v>
       </c>
       <c r="R72" s="3">
+        <v>-54400</v>
+      </c>
+      <c r="S72" s="3">
         <v>-57800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-57700</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E76" s="3">
         <v>13600</v>
       </c>
-      <c r="E76" s="3">
-        <v>13800</v>
-      </c>
       <c r="F76" s="3">
+        <v>13700</v>
+      </c>
+      <c r="G76" s="3">
         <v>13900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>14800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>15200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>11400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>11800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>12800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>13400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1000</v>
-      </c>
-      <c r="P76" s="3">
-        <v>1100</v>
       </c>
       <c r="Q76" s="3">
         <v>1100</v>
       </c>
       <c r="R76" s="3">
+        <v>1100</v>
+      </c>
+      <c r="S76" s="3">
         <v>1200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,101 +4281,107 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-500</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-1000</v>
       </c>
       <c r="K81" s="3">
         <v>-1000</v>
       </c>
       <c r="L81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="M81" s="3">
         <v>-1100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-400</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-100</v>
       </c>
       <c r="O81" s="3">
         <v>-100</v>
@@ -4195,16 +4390,19 @@
         <v>-100</v>
       </c>
       <c r="Q81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4253,8 +4452,8 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>4</v>
+      <c r="L83" s="3">
+        <v>0</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>4</v>
@@ -4271,14 +4470,17 @@
       <c r="Q83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R83" s="3">
-        <v>0</v>
+      <c r="R83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,43 +4756,46 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-600</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-200</v>
       </c>
       <c r="I89" s="3">
         <v>-200</v>
       </c>
       <c r="J89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K89" s="3">
         <v>-500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-400</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-100</v>
       </c>
       <c r="O89" s="3">
         <v>-100</v>
@@ -4587,16 +4804,19 @@
         <v>-100</v>
       </c>
       <c r="Q89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4625,28 +4846,28 @@
         <v>-100</v>
       </c>
       <c r="E91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F91" s="3">
         <v>-500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-600</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>4</v>
@@ -4663,14 +4884,17 @@
       <c r="Q91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-400</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-600</v>
       </c>
       <c r="G94" s="3">
         <v>-600</v>
       </c>
       <c r="H94" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I94" s="3">
         <v>-500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-900</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>4</v>
+      <c r="P94" s="3">
+        <v>0</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
+      <c r="R94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,47 +5304,50 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>4</v>
+      <c r="D100" s="3">
+        <v>0</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
+      <c r="F100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>4400</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>-100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>9500</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>400</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>4</v>
       </c>
@@ -5114,8 +5360,11 @@
       <c r="S100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,57 +5416,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>3700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>3700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>400</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GBRCF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GBRCF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="92">
   <si>
     <t>GBRCF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,93 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -802,8 +806,11 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -858,8 +865,11 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +924,11 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +949,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1006,11 @@
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,13 +1065,16 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>4</v>
@@ -1062,27 +1082,27 @@
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3">
         <v>200</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3">
         <v>300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>200</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1098,14 +1118,17 @@
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1139,8 +1162,8 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>4</v>
+      <c r="N15" s="3">
+        <v>0</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>4</v>
@@ -1160,8 +1183,11 @@
       <c r="T15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,46 +1205,47 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>300</v>
+      </c>
+      <c r="E17" s="3">
         <v>200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
+        <v>200</v>
+      </c>
+      <c r="G17" s="3">
         <v>300</v>
       </c>
-      <c r="F17" s="3">
-        <v>300</v>
-      </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>600</v>
       </c>
-      <c r="I17" s="3">
-        <v>1000</v>
-      </c>
       <c r="J17" s="3">
+        <v>900</v>
+      </c>
+      <c r="K17" s="3">
         <v>500</v>
-      </c>
-      <c r="K17" s="3">
-        <v>1000</v>
       </c>
       <c r="L17" s="3">
         <v>1000</v>
       </c>
       <c r="M17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N17" s="3">
         <v>1100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>400</v>
-      </c>
-      <c r="O17" s="3">
-        <v>100</v>
       </c>
       <c r="P17" s="3">
         <v>100</v>
@@ -1235,8 +1262,11 @@
       <c r="T17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1244,37 +1274,37 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G18" s="3">
         <v>-300</v>
       </c>
-      <c r="F18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-600</v>
       </c>
-      <c r="I18" s="3">
-        <v>-1000</v>
-      </c>
       <c r="J18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="K18" s="3">
         <v>-500</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-1000</v>
       </c>
       <c r="L18" s="3">
         <v>-1000</v>
       </c>
       <c r="M18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="N18" s="3">
         <v>-1100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-400</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-100</v>
       </c>
       <c r="P18" s="3">
         <v>-100</v>
@@ -1291,8 +1321,11 @@
       <c r="T18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1346,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1322,17 +1356,17 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-300</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1369,8 +1403,11 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1378,31 +1415,31 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1000</v>
       </c>
-      <c r="H21" s="3">
-        <v>-600</v>
-      </c>
       <c r="I21" s="3">
-        <v>-1000</v>
+        <v>-500</v>
       </c>
       <c r="J21" s="3">
+        <v>-900</v>
+      </c>
+      <c r="K21" s="3">
         <v>-500</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-1000</v>
       </c>
       <c r="L21" s="3">
         <v>-1000</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
+      <c r="M21" s="3">
+        <v>-1000</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>4</v>
@@ -1425,8 +1462,11 @@
       <c r="T21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,46 +1521,49 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-600</v>
       </c>
-      <c r="I23" s="3">
-        <v>-1000</v>
-      </c>
       <c r="J23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="K23" s="3">
         <v>-500</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-1000</v>
       </c>
       <c r="L23" s="3">
         <v>-1000</v>
       </c>
       <c r="M23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="N23" s="3">
         <v>-1100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-400</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-100</v>
       </c>
       <c r="P23" s="3">
         <v>-100</v>
@@ -1529,16 +1572,19 @@
         <v>-100</v>
       </c>
       <c r="R23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1639,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,46 +1698,49 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-600</v>
       </c>
-      <c r="I26" s="3">
-        <v>-1000</v>
-      </c>
       <c r="J26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="K26" s="3">
         <v>-500</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-1000</v>
       </c>
       <c r="L26" s="3">
         <v>-1000</v>
       </c>
       <c r="M26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="N26" s="3">
         <v>-1100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-400</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-100</v>
       </c>
       <c r="P26" s="3">
         <v>-100</v>
@@ -1697,54 +1749,57 @@
         <v>-100</v>
       </c>
       <c r="R26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-600</v>
       </c>
-      <c r="I27" s="3">
-        <v>-1000</v>
-      </c>
       <c r="J27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="K27" s="3">
         <v>-500</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-1000</v>
       </c>
       <c r="L27" s="3">
         <v>-1000</v>
       </c>
       <c r="M27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="N27" s="3">
         <v>-1100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-400</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-100</v>
       </c>
       <c r="P27" s="3">
         <v>-100</v>
@@ -1753,16 +1808,19 @@
         <v>-100</v>
       </c>
       <c r="R27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1934,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2052,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1994,17 +2064,17 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>300</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -2041,46 +2111,49 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-600</v>
       </c>
-      <c r="I33" s="3">
-        <v>-1000</v>
-      </c>
       <c r="J33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="K33" s="3">
         <v>-500</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-1000</v>
       </c>
       <c r="L33" s="3">
         <v>-1000</v>
       </c>
       <c r="M33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="N33" s="3">
         <v>-1100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-400</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-100</v>
       </c>
       <c r="P33" s="3">
         <v>-100</v>
@@ -2089,16 +2162,19 @@
         <v>-100</v>
       </c>
       <c r="R33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,46 +2229,49 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-600</v>
       </c>
-      <c r="I35" s="3">
-        <v>-1000</v>
-      </c>
       <c r="J35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="K35" s="3">
         <v>-500</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-1000</v>
       </c>
       <c r="L35" s="3">
         <v>-1000</v>
       </c>
       <c r="M35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="N35" s="3">
         <v>-1100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-400</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-100</v>
       </c>
       <c r="P35" s="3">
         <v>-100</v>
@@ -2201,77 +2280,83 @@
         <v>-100</v>
       </c>
       <c r="R35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,72 +2400,76 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>500</v>
+      </c>
+      <c r="E41" s="3">
         <v>800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1800</v>
       </c>
-      <c r="H41" s="3">
-        <v>2800</v>
-      </c>
       <c r="I41" s="3">
-        <v>4000</v>
+        <v>2700</v>
       </c>
       <c r="J41" s="3">
+        <v>3900</v>
+      </c>
+      <c r="K41" s="3">
         <v>300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>400</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
       <c r="Q41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R41" s="3">
         <v>100</v>
       </c>
       <c r="S41" s="3">
+        <v>100</v>
+      </c>
+      <c r="T41" s="3">
         <v>200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>200</v>
+      </c>
+      <c r="E42" s="3">
         <v>100</v>
-      </c>
-      <c r="E42" s="3">
-        <v>300</v>
       </c>
       <c r="F42" s="3">
         <v>300</v>
@@ -2387,8 +2477,8 @@
       <c r="G42" s="3">
         <v>200</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>4</v>
+      <c r="H42" s="3">
+        <v>200</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>4</v>
@@ -2405,8 +2495,8 @@
       <c r="M42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
+      <c r="N42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O42" s="3">
         <v>0</v>
@@ -2426,8 +2516,11 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2462,13 +2555,13 @@
         <v>0</v>
       </c>
       <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
         <v>100</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
       <c r="P43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="3">
         <v>100</v>
@@ -2482,8 +2575,11 @@
       <c r="T43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,8 +2634,11 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2550,35 +2649,35 @@
         <v>0</v>
       </c>
       <c r="F45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G45" s="3">
         <v>100</v>
       </c>
       <c r="H45" s="3">
+        <v>100</v>
+      </c>
+      <c r="I45" s="3">
         <v>400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>200</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
       <c r="P45" s="3">
         <v>0</v>
       </c>
@@ -2594,64 +2693,70 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>800</v>
+      </c>
+      <c r="E46" s="3">
         <v>1000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3200</v>
       </c>
-      <c r="I46" s="3">
-        <v>4300</v>
-      </c>
       <c r="J46" s="3">
+        <v>4200</v>
+      </c>
+      <c r="K46" s="3">
         <v>700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>400</v>
-      </c>
-      <c r="P46" s="3">
-        <v>100</v>
       </c>
       <c r="Q46" s="3">
         <v>100</v>
       </c>
       <c r="R46" s="3">
+        <v>100</v>
+      </c>
+      <c r="S46" s="3">
         <v>200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,49 +2811,52 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>11700</v>
+        <v>11600</v>
       </c>
       <c r="E48" s="3">
-        <v>11600</v>
+        <v>11500</v>
       </c>
       <c r="F48" s="3">
-        <v>11500</v>
+        <v>11400</v>
       </c>
       <c r="G48" s="3">
-        <v>11200</v>
+        <v>11300</v>
       </c>
       <c r="H48" s="3">
-        <v>11100</v>
+        <v>11000</v>
       </c>
       <c r="I48" s="3">
-        <v>10500</v>
+        <v>10900</v>
       </c>
       <c r="J48" s="3">
+        <v>10300</v>
+      </c>
+      <c r="K48" s="3">
         <v>10100</v>
-      </c>
-      <c r="K48" s="3">
-        <v>9400</v>
       </c>
       <c r="L48" s="3">
         <v>9400</v>
       </c>
       <c r="M48" s="3">
+        <v>9400</v>
+      </c>
+      <c r="N48" s="3">
         <v>8800</v>
-      </c>
-      <c r="N48" s="3">
-        <v>1000</v>
       </c>
       <c r="O48" s="3">
         <v>1000</v>
       </c>
       <c r="P48" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="Q48" s="3">
         <v>1100</v>
@@ -2762,8 +2870,11 @@
       <c r="T48" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +2929,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3047,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2939,16 +3059,16 @@
         <v>500</v>
       </c>
       <c r="E52" s="3">
+        <v>500</v>
+      </c>
+      <c r="F52" s="3">
         <v>700</v>
-      </c>
-      <c r="F52" s="3">
-        <v>600</v>
       </c>
       <c r="G52" s="3">
         <v>600</v>
       </c>
       <c r="H52" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="I52" s="3">
         <v>700</v>
@@ -2960,13 +3080,13 @@
         <v>700</v>
       </c>
       <c r="L52" s="3">
+        <v>700</v>
+      </c>
+      <c r="M52" s="3">
         <v>900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>700</v>
-      </c>
-      <c r="N52" s="3">
-        <v>100</v>
       </c>
       <c r="O52" s="3">
         <v>100</v>
@@ -2975,7 +3095,7 @@
         <v>100</v>
       </c>
       <c r="Q52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R52" s="3">
         <v>0</v>
@@ -2983,11 +3103,14 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3165,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>13200</v>
+        <v>13000</v>
       </c>
       <c r="E54" s="3">
-        <v>13600</v>
+        <v>13000</v>
       </c>
       <c r="F54" s="3">
-        <v>13800</v>
+        <v>13400</v>
       </c>
       <c r="G54" s="3">
-        <v>14000</v>
+        <v>13500</v>
       </c>
       <c r="H54" s="3">
-        <v>15100</v>
+        <v>13700</v>
       </c>
       <c r="I54" s="3">
-        <v>15500</v>
+        <v>14800</v>
       </c>
       <c r="J54" s="3">
+        <v>15300</v>
+      </c>
+      <c r="K54" s="3">
         <v>11500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>11900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>13000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>13700</v>
-      </c>
-      <c r="N54" s="3">
-        <v>1500</v>
       </c>
       <c r="O54" s="3">
         <v>1500</v>
       </c>
       <c r="P54" s="3">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="Q54" s="3">
         <v>1200</v>
       </c>
       <c r="R54" s="3">
+        <v>1200</v>
+      </c>
+      <c r="S54" s="3">
         <v>1300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,46 +3272,47 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E57" s="3">
+      <c r="D57" s="3">
+        <v>0</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F57" s="3">
         <v>100</v>
       </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
       <c r="G57" s="3">
         <v>0</v>
       </c>
       <c r="H57" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="I57" s="3">
         <v>300</v>
       </c>
       <c r="J57" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K57" s="3">
         <v>100</v>
       </c>
       <c r="L57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M57" s="3">
         <v>200</v>
       </c>
       <c r="N57" s="3">
+        <v>200</v>
+      </c>
+      <c r="O57" s="3">
         <v>300</v>
-      </c>
-      <c r="O57" s="3">
-        <v>100</v>
       </c>
       <c r="P57" s="3">
         <v>100</v>
@@ -3198,8 +3329,11 @@
       <c r="T57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3212,8 +3346,8 @@
       <c r="F58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
+      <c r="G58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
@@ -3234,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="N58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O58" s="3">
         <v>100</v>
@@ -3254,8 +3388,11 @@
       <c r="T58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3310,46 +3447,49 @@
       <c r="T59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E60" s="3">
+      <c r="D60" s="3">
+        <v>0</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F60" s="3">
         <v>100</v>
       </c>
-      <c r="F60" s="3">
-        <v>0</v>
-      </c>
       <c r="G60" s="3">
+        <v>0</v>
+      </c>
+      <c r="H60" s="3">
         <v>100</v>
-      </c>
-      <c r="H60" s="3">
-        <v>300</v>
       </c>
       <c r="I60" s="3">
         <v>300</v>
       </c>
       <c r="J60" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K60" s="3">
         <v>100</v>
       </c>
       <c r="L60" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M60" s="3">
         <v>200</v>
       </c>
       <c r="N60" s="3">
+        <v>200</v>
+      </c>
+      <c r="O60" s="3">
         <v>400</v>
-      </c>
-      <c r="O60" s="3">
-        <v>200</v>
       </c>
       <c r="P60" s="3">
         <v>200</v>
@@ -3366,8 +3506,11 @@
       <c r="T60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3422,8 +3565,11 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3478,8 +3624,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,46 +3801,49 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E66" s="3">
+      <c r="D66" s="3">
+        <v>0</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F66" s="3">
         <v>100</v>
       </c>
-      <c r="F66" s="3">
-        <v>0</v>
-      </c>
       <c r="G66" s="3">
+        <v>0</v>
+      </c>
+      <c r="H66" s="3">
         <v>100</v>
-      </c>
-      <c r="H66" s="3">
-        <v>300</v>
       </c>
       <c r="I66" s="3">
         <v>300</v>
       </c>
       <c r="J66" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K66" s="3">
         <v>100</v>
       </c>
       <c r="L66" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M66" s="3">
         <v>200</v>
       </c>
       <c r="N66" s="3">
+        <v>200</v>
+      </c>
+      <c r="O66" s="3">
         <v>400</v>
-      </c>
-      <c r="O66" s="3">
-        <v>200</v>
       </c>
       <c r="P66" s="3">
         <v>200</v>
@@ -3702,8 +3860,11 @@
       <c r="T66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4119,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-56600</v>
+        <v>-55700</v>
       </c>
       <c r="E72" s="3">
-        <v>-56300</v>
+        <v>-55600</v>
       </c>
       <c r="F72" s="3">
-        <v>-56100</v>
+        <v>-55300</v>
       </c>
       <c r="G72" s="3">
-        <v>-56000</v>
+        <v>-55100</v>
       </c>
       <c r="H72" s="3">
-        <v>-55100</v>
+        <v>-55000</v>
       </c>
       <c r="I72" s="3">
-        <v>-54700</v>
+        <v>-54100</v>
       </c>
       <c r="J72" s="3">
+        <v>-53700</v>
+      </c>
+      <c r="K72" s="3">
         <v>-54100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-53800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-53700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-53000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-54400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-53700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-54900</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-54400</v>
       </c>
       <c r="R72" s="3">
         <v>-54400</v>
       </c>
       <c r="S72" s="3">
+        <v>-54400</v>
+      </c>
+      <c r="T72" s="3">
         <v>-57800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-57700</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4355,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>13200</v>
+        <v>12900</v>
       </c>
       <c r="E76" s="3">
+        <v>13000</v>
+      </c>
+      <c r="F76" s="3">
+        <v>13300</v>
+      </c>
+      <c r="G76" s="3">
+        <v>13500</v>
+      </c>
+      <c r="H76" s="3">
         <v>13600</v>
       </c>
-      <c r="F76" s="3">
-        <v>13700</v>
-      </c>
-      <c r="G76" s="3">
-        <v>13900</v>
-      </c>
-      <c r="H76" s="3">
-        <v>14800</v>
-      </c>
       <c r="I76" s="3">
-        <v>15200</v>
+        <v>14500</v>
       </c>
       <c r="J76" s="3">
+        <v>15000</v>
+      </c>
+      <c r="K76" s="3">
         <v>11400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>11800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>12800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>13400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1000</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>1100</v>
       </c>
       <c r="R76" s="3">
         <v>1100</v>
       </c>
       <c r="S76" s="3">
+        <v>1100</v>
+      </c>
+      <c r="T76" s="3">
         <v>1200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,107 +4473,113 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-600</v>
       </c>
-      <c r="I81" s="3">
-        <v>-1000</v>
-      </c>
       <c r="J81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="K81" s="3">
         <v>-500</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-1000</v>
       </c>
       <c r="L81" s="3">
         <v>-1000</v>
       </c>
       <c r="M81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="N81" s="3">
         <v>-1100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-400</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-100</v>
       </c>
       <c r="P81" s="3">
         <v>-100</v>
@@ -4393,16 +4588,19 @@
         <v>-100</v>
       </c>
       <c r="R81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4621,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4455,8 +4654,8 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>4</v>
+      <c r="M83" s="3">
+        <v>0</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>4</v>
@@ -4473,14 +4672,17 @@
       <c r="R83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S83" s="3">
-        <v>0</v>
+      <c r="S83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,8 +4973,11 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4768,37 +4985,37 @@
         <v>-200</v>
       </c>
       <c r="E89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-600</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-200</v>
       </c>
       <c r="J89" s="3">
         <v>-200</v>
       </c>
       <c r="K89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L89" s="3">
         <v>-500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-400</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-100</v>
       </c>
       <c r="P89" s="3">
         <v>-100</v>
@@ -4807,16 +5024,19 @@
         <v>-100</v>
       </c>
       <c r="R89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,40 +5057,41 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E91" s="3">
         <v>-100</v>
       </c>
       <c r="F91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G91" s="3">
         <v>-500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-600</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>4</v>
@@ -4887,14 +5108,17 @@
       <c r="R91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
+      <c r="S91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5232,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3">
         <v>100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-400</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-600</v>
       </c>
       <c r="H94" s="3">
         <v>-600</v>
       </c>
       <c r="I94" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J94" s="3">
         <v>-500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-900</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
+      <c r="O94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>4</v>
+      <c r="Q94" s="3">
+        <v>0</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
+      <c r="S94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,50 +5550,53 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
         <v>0</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>4</v>
+      <c r="E100" s="3">
+        <v>0</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
+      <c r="G100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
       <c r="I100" s="3">
-        <v>4400</v>
+        <v>0</v>
       </c>
       <c r="J100" s="3">
-        <v>0</v>
+        <v>4300</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>-100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>9500</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>400</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>4</v>
       </c>
@@ -5363,8 +5609,11 @@
       <c r="T100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,60 +5668,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-300</v>
       </c>
-      <c r="F102" s="3">
-        <v>-600</v>
-      </c>
       <c r="G102" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H102" s="3">
         <v>-900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
+        <v>3600</v>
+      </c>
+      <c r="K102" s="3">
+        <v>-800</v>
+      </c>
+      <c r="L102" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="M102" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="N102" s="3">
         <v>3700</v>
       </c>
-      <c r="J102" s="3">
-        <v>-800</v>
-      </c>
-      <c r="K102" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="L102" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="M102" s="3">
-        <v>3700</v>
-      </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>400</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
     </row>
